--- a/algorithms_results/Yardens_results/BruteForce_subgroups_results_delta_10000_1.xlsx
+++ b/algorithms_results/Yardens_results/BruteForce_subgroups_results_delta_10000_1.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>425</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,391 +758,391 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3)}</t>
+          <t>{'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18184</v>
+        <v>13397</v>
       </c>
       <c r="C16" t="n">
-        <v>5277.431638917058</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2937.124537684985</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1)}</t>
+          <t>{'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27409</v>
+        <v>18184</v>
       </c>
       <c r="C17" t="n">
-        <v>2027.093158772808</v>
+        <v>5277.431638917058</v>
       </c>
       <c r="D17" t="n">
-        <v>-313.2139424592651</v>
+        <v>2937.124537684985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'GDP': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15813</v>
+        <v>27409</v>
       </c>
       <c r="C18" t="n">
-        <v>427.6763280714937</v>
+        <v>2027.093158772808</v>
       </c>
       <c r="D18" t="n">
-        <v>-1912.63077316058</v>
+        <v>-313.2139424592651</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'GDP': np.int64(2)}</t>
+          <t>{'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11596</v>
+        <v>15813</v>
       </c>
       <c r="C19" t="n">
-        <v>4066.342337608624</v>
+        <v>427.6763280714937</v>
       </c>
       <c r="D19" t="n">
-        <v>1726.035236376551</v>
+        <v>-1912.63077316058</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(1)}</t>
+          <t>{'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13450</v>
+        <v>11596</v>
       </c>
       <c r="C20" t="n">
-        <v>2334.99346834248</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.313632889593009</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'GINI': np.int64(2)}</t>
+          <t>{'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18821</v>
+        <v>13450</v>
       </c>
       <c r="C21" t="n">
-        <v>3384.17273762318</v>
+        <v>2334.99346834248</v>
       </c>
       <c r="D21" t="n">
-        <v>1043.865636391106</v>
+        <v>-5.313632889593009</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23980</v>
+        <v>18821</v>
       </c>
       <c r="C22" t="n">
-        <v>2716.105118301271</v>
+        <v>3384.17273762318</v>
       </c>
       <c r="D22" t="n">
-        <v>375.7980170691981</v>
+        <v>1043.865636391106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13715</v>
+        <v>23980</v>
       </c>
       <c r="C23" t="n">
-        <v>4876.214819285695</v>
+        <v>2716.105118301271</v>
       </c>
       <c r="D23" t="n">
-        <v>2535.907718053621</v>
+        <v>375.7980170691981</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18492</v>
+        <v>13715</v>
       </c>
       <c r="C24" t="n">
-        <v>1518.308014607594</v>
+        <v>4876.214819285695</v>
       </c>
       <c r="D24" t="n">
-        <v>-821.9990866244791</v>
+        <v>2535.907718053621</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17963</v>
+        <v>18492</v>
       </c>
       <c r="C25" t="n">
-        <v>-101.5387529710462</v>
+        <v>1518.308014607594</v>
       </c>
       <c r="D25" t="n">
-        <v>-2441.845854203119</v>
+        <v>-821.9990866244791</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Exercise': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10636</v>
+        <v>17963</v>
       </c>
       <c r="C26" t="n">
-        <v>-1379.018851914333</v>
+        <v>-101.5387529710462</v>
       </c>
       <c r="D26" t="n">
-        <v>-3719.325953146407</v>
+        <v>-2441.845854203119</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Exercise': np.int64(3)}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27456</v>
+        <v>10636</v>
       </c>
       <c r="C27" t="n">
-        <v>1181.715079650815</v>
+        <v>-1379.018851914333</v>
       </c>
       <c r="D27" t="n">
-        <v>-1158.592021581258</v>
+        <v>-3719.325953146407</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22770</v>
+        <v>27456</v>
       </c>
       <c r="C28" t="n">
-        <v>3775.464065673236</v>
+        <v>1181.715079650815</v>
       </c>
       <c r="D28" t="n">
-        <v>1435.156964441163</v>
+        <v>-1158.592021581258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20214</v>
+        <v>22770</v>
       </c>
       <c r="C29" t="n">
-        <v>2976.278412994609</v>
+        <v>3775.464065673236</v>
       </c>
       <c r="D29" t="n">
-        <v>635.9713117625356</v>
+        <v>1435.156964441163</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12451</v>
+        <v>20214</v>
       </c>
       <c r="C30" t="n">
-        <v>-3421.757979060605</v>
+        <v>2976.278412994609</v>
       </c>
       <c r="D30" t="n">
-        <v>-5762.065080292678</v>
+        <v>635.9713117625356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15096</v>
+        <v>12451</v>
       </c>
       <c r="C31" t="n">
-        <v>4209.44231883356</v>
+        <v>-3421.757979060605</v>
       </c>
       <c r="D31" t="n">
-        <v>1869.135217601486</v>
+        <v>-5762.065080292678</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22809</v>
+        <v>11084</v>
       </c>
       <c r="C32" t="n">
-        <v>958.2290161411431</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-1382.07808509093</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13175</v>
+        <v>15096</v>
       </c>
       <c r="C33" t="n">
-        <v>-1805.864225629476</v>
+        <v>4209.44231883356</v>
       </c>
       <c r="D33" t="n">
-        <v>-4146.171326861549</v>
+        <v>1869.135217601486</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11149</v>
+        <v>22809</v>
       </c>
       <c r="C34" t="n">
-        <v>-21455.68151289859</v>
+        <v>958.2290161411431</v>
       </c>
       <c r="D34" t="n">
-        <v>-23795.98861413067</v>
+        <v>-1382.07808509093</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15415</v>
+        <v>13175</v>
       </c>
       <c r="C35" t="n">
-        <v>3909.763022827451</v>
+        <v>-1805.864225629476</v>
       </c>
       <c r="D35" t="n">
-        <v>1569.455921595378</v>
+        <v>-4146.171326861549</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10385</v>
+        <v>11149</v>
       </c>
       <c r="C36" t="n">
-        <v>3877.754700314994</v>
+        <v>-21455.68151289859</v>
       </c>
       <c r="D36" t="n">
-        <v>1537.447599082921</v>
+        <v>-23795.98861413067</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10972</v>
+        <v>15415</v>
       </c>
       <c r="C37" t="n">
-        <v>5078.425941471709</v>
+        <v>3909.763022827451</v>
       </c>
       <c r="D37" t="n">
-        <v>2738.118840239636</v>
+        <v>1569.455921595378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11596</v>
+        <v>10385</v>
       </c>
       <c r="C38" t="n">
-        <v>4066.342337608624</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D38" t="n">
-        <v>1726.035236376551</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11596</v>
+        <v>10972</v>
       </c>
       <c r="C39" t="n">
-        <v>4066.342337608624</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D39" t="n">
-        <v>1726.035236376551</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'GDP': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1158,7 +1158,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1174,1079 +1174,1079 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14546</v>
+        <v>11596</v>
       </c>
       <c r="C42" t="n">
-        <v>3856.5372255482</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D42" t="n">
-        <v>1516.230124316126</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18214</v>
+        <v>11596</v>
       </c>
       <c r="C43" t="n">
-        <v>1675.615283759511</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D43" t="n">
-        <v>-664.6918174725627</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>18231</v>
+        <v>14546</v>
       </c>
       <c r="C44" t="n">
-        <v>2567.765575376772</v>
+        <v>3856.5372255482</v>
       </c>
       <c r="D44" t="n">
-        <v>227.4584741446988</v>
+        <v>1516.230124316126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Exercise': np.int64(3)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10711</v>
+        <v>18214</v>
       </c>
       <c r="C45" t="n">
-        <v>390.7728439544397</v>
+        <v>1675.615283759511</v>
       </c>
       <c r="D45" t="n">
-        <v>-1949.534257277634</v>
+        <v>-664.6918174725627</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27820</v>
+        <v>18231</v>
       </c>
       <c r="C46" t="n">
-        <v>3110.102123995851</v>
+        <v>2567.765575376772</v>
       </c>
       <c r="D46" t="n">
-        <v>769.795022763778</v>
+        <v>227.4584741446988</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Exercise': np.int64(3)}</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23188</v>
+        <v>10711</v>
       </c>
       <c r="C47" t="n">
-        <v>5816.966437870303</v>
+        <v>390.7728439544397</v>
       </c>
       <c r="D47" t="n">
-        <v>3476.659336638229</v>
+        <v>-1949.534257277634</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>19387</v>
+        <v>27820</v>
       </c>
       <c r="C48" t="n">
-        <v>4147.833642739099</v>
+        <v>3110.102123995851</v>
       </c>
       <c r="D48" t="n">
-        <v>1807.526541507025</v>
+        <v>769.795022763778</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>12207</v>
+        <v>23188</v>
       </c>
       <c r="C49" t="n">
-        <v>1991.825202339634</v>
+        <v>5816.966437870303</v>
       </c>
       <c r="D49" t="n">
-        <v>-348.4818988924396</v>
+        <v>3476.659336638229</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15730</v>
+        <v>19387</v>
       </c>
       <c r="C50" t="n">
-        <v>4986.040708791625</v>
+        <v>4147.833642739099</v>
       </c>
       <c r="D50" t="n">
-        <v>2645.733607559551</v>
+        <v>1807.526541507025</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>23587</v>
+        <v>12207</v>
       </c>
       <c r="C51" t="n">
-        <v>3426.977602174042</v>
+        <v>1991.825202339634</v>
       </c>
       <c r="D51" t="n">
-        <v>1086.670500941968</v>
+        <v>-348.4818988924396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13202</v>
+        <v>11939</v>
       </c>
       <c r="C52" t="n">
-        <v>3094.558685019645</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>754.2515837875712</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10385</v>
+        <v>15730</v>
       </c>
       <c r="C53" t="n">
-        <v>3877.754700314994</v>
+        <v>4986.040708791625</v>
       </c>
       <c r="D53" t="n">
-        <v>1537.447599082921</v>
+        <v>2645.733607559551</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11220</v>
+        <v>23587</v>
       </c>
       <c r="C54" t="n">
-        <v>15381.73221243757</v>
+        <v>3426.977602174042</v>
       </c>
       <c r="D54" t="n">
-        <v>13041.4251112055</v>
+        <v>1086.670500941968</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15786</v>
+        <v>13202</v>
       </c>
       <c r="C55" t="n">
-        <v>3313.353978625743</v>
+        <v>3094.558685019645</v>
       </c>
       <c r="D55" t="n">
-        <v>973.0468773936695</v>
+        <v>754.2515837875712</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11276</v>
+        <v>10385</v>
       </c>
       <c r="C56" t="n">
-        <v>8090.860932072618</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D56" t="n">
-        <v>5750.553830840545</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10443</v>
+        <v>11220</v>
       </c>
       <c r="C57" t="n">
-        <v>6015.757214664538</v>
+        <v>15381.73221243757</v>
       </c>
       <c r="D57" t="n">
-        <v>3675.450113432465</v>
+        <v>13041.4251112055</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>16065</v>
+        <v>15786</v>
       </c>
       <c r="C58" t="n">
-        <v>4959.317262945568</v>
+        <v>3313.353978625743</v>
       </c>
       <c r="D58" t="n">
-        <v>2619.010161713495</v>
+        <v>973.0468773936695</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>12631</v>
+        <v>11276</v>
       </c>
       <c r="C59" t="n">
-        <v>7377.358608089333</v>
+        <v>8090.860932072618</v>
       </c>
       <c r="D59" t="n">
-        <v>5037.051506857259</v>
+        <v>5750.553830840545</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'FormalEducation': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11756</v>
+        <v>10443</v>
       </c>
       <c r="C60" t="n">
-        <v>6125.527849846592</v>
+        <v>6015.757214664538</v>
       </c>
       <c r="D60" t="n">
-        <v>3785.220748614519</v>
+        <v>3675.450113432465</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12769</v>
+        <v>16065</v>
       </c>
       <c r="C61" t="n">
-        <v>5074.237808072908</v>
+        <v>4959.317262945568</v>
       </c>
       <c r="D61" t="n">
-        <v>2733.930706840834</v>
+        <v>2619.010161713495</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10666</v>
+        <v>12631</v>
       </c>
       <c r="C62" t="n">
-        <v>6198.623966386926</v>
+        <v>7377.358608089333</v>
       </c>
       <c r="D62" t="n">
-        <v>3858.316865154852</v>
+        <v>5037.051506857259</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2)}</t>
+          <t>{'FormalEducation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14250</v>
+        <v>11756</v>
       </c>
       <c r="C63" t="n">
-        <v>1093.421058254886</v>
+        <v>6125.527849846592</v>
       </c>
       <c r="D63" t="n">
-        <v>-1246.886042977187</v>
+        <v>3785.220748614519</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>21070</v>
+        <v>12769</v>
       </c>
       <c r="C64" t="n">
-        <v>1590.651990662487</v>
+        <v>5074.237808072908</v>
       </c>
       <c r="D64" t="n">
-        <v>-749.6551105695862</v>
+        <v>2733.930706840834</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17057</v>
+        <v>10666</v>
       </c>
       <c r="C65" t="n">
-        <v>3997.707860974062</v>
+        <v>6198.623966386926</v>
       </c>
       <c r="D65" t="n">
-        <v>1657.400759741989</v>
+        <v>3858.316865154852</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>15642</v>
+        <v>14250</v>
       </c>
       <c r="C66" t="n">
-        <v>3350.630733051658</v>
+        <v>1093.421058254886</v>
       </c>
       <c r="D66" t="n">
-        <v>1010.323631819585</v>
+        <v>-1246.886042977187</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11601</v>
+        <v>21070</v>
       </c>
       <c r="C67" t="n">
-        <v>4882.890606015729</v>
+        <v>1590.651990662487</v>
       </c>
       <c r="D67" t="n">
-        <v>2542.583504783655</v>
+        <v>-749.6551105695862</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>17270</v>
+        <v>17057</v>
       </c>
       <c r="C68" t="n">
-        <v>1867.62820136353</v>
+        <v>3997.707860974062</v>
       </c>
       <c r="D68" t="n">
-        <v>-472.6788998685436</v>
+        <v>1657.400759741989</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'GDP': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10391</v>
+        <v>15642</v>
       </c>
       <c r="C69" t="n">
-        <v>-2266.521582517219</v>
+        <v>3350.630733051658</v>
       </c>
       <c r="D69" t="n">
-        <v>-4606.828683749292</v>
+        <v>1010.323631819585</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>11538</v>
+        <v>11601</v>
       </c>
       <c r="C70" t="n">
-        <v>5682.138704526394</v>
+        <v>4882.890606015729</v>
       </c>
       <c r="D70" t="n">
-        <v>3341.83160329432</v>
+        <v>2542.583504783655</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>20356</v>
+        <v>17270</v>
       </c>
       <c r="C71" t="n">
-        <v>1383.848501236791</v>
+        <v>1867.62820136353</v>
       </c>
       <c r="D71" t="n">
-        <v>-956.4585999952828</v>
+        <v>-472.6788998685436</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>16852</v>
+        <v>10391</v>
       </c>
       <c r="C72" t="n">
-        <v>3149.837078595702</v>
+        <v>-2266.521582517219</v>
       </c>
       <c r="D72" t="n">
-        <v>809.5299773636289</v>
+        <v>-4606.828683749292</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>14545</v>
+        <v>11538</v>
       </c>
       <c r="C73" t="n">
-        <v>218.9367207383385</v>
+        <v>5682.138704526394</v>
       </c>
       <c r="D73" t="n">
-        <v>-2121.370380493735</v>
+        <v>3341.83160329432</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11093</v>
+        <v>20356</v>
       </c>
       <c r="C74" t="n">
-        <v>5457.828751388692</v>
+        <v>1383.848501236791</v>
       </c>
       <c r="D74" t="n">
-        <v>3117.521650156618</v>
+        <v>-956.4585999952828</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>16823</v>
+        <v>16852</v>
       </c>
       <c r="C75" t="n">
-        <v>1441.843959195062</v>
+        <v>3149.837078595702</v>
       </c>
       <c r="D75" t="n">
-        <v>-898.4631420370113</v>
+        <v>809.5299773636289</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'DevType': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>11274</v>
+        <v>14545</v>
       </c>
       <c r="C76" t="n">
-        <v>3601.813586164662</v>
+        <v>218.9367207383385</v>
       </c>
       <c r="D76" t="n">
-        <v>1261.506484932589</v>
+        <v>-2121.370380493735</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>{'Exercise': np.int64(3), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>12145</v>
+        <v>11093</v>
       </c>
       <c r="C77" t="n">
-        <v>161.12463806105</v>
+        <v>5457.828751388692</v>
       </c>
       <c r="D77" t="n">
-        <v>-2179.182463171023</v>
+        <v>3117.521650156618</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>25910</v>
+        <v>16823</v>
       </c>
       <c r="C78" t="n">
-        <v>4246.354118795837</v>
+        <v>1441.843959195062</v>
       </c>
       <c r="D78" t="n">
-        <v>1906.047017563764</v>
+        <v>-898.4631420370113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10685</v>
+        <v>11274</v>
       </c>
       <c r="C79" t="n">
-        <v>939.0920654833235</v>
+        <v>3601.813586164662</v>
       </c>
       <c r="D79" t="n">
-        <v>-1401.21503574875</v>
+        <v>1261.506484932589</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Exercise': np.int64(3), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>22568</v>
+        <v>12145</v>
       </c>
       <c r="C80" t="n">
-        <v>2955.158541757981</v>
+        <v>161.12463806105</v>
       </c>
       <c r="D80" t="n">
-        <v>614.8514405259079</v>
+        <v>-2179.182463171023</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>14174</v>
+        <v>25910</v>
       </c>
       <c r="C81" t="n">
-        <v>-188.2904635361727</v>
+        <v>4246.354118795837</v>
       </c>
       <c r="D81" t="n">
-        <v>-2528.597564768246</v>
+        <v>1906.047017563764</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(1)}</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>17245</v>
+        <v>10685</v>
       </c>
       <c r="C82" t="n">
-        <v>6222.400724925114</v>
+        <v>939.0920654833235</v>
       </c>
       <c r="D82" t="n">
-        <v>3882.09362369304</v>
+        <v>-1401.21503574875</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>25944</v>
+        <v>22568</v>
       </c>
       <c r="C83" t="n">
-        <v>2423.772197379188</v>
+        <v>2955.158541757981</v>
       </c>
       <c r="D83" t="n">
-        <v>83.46509614711431</v>
+        <v>614.8514405259079</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>14972</v>
+        <v>14174</v>
       </c>
       <c r="C84" t="n">
-        <v>317.6462988589344</v>
+        <v>-188.2904635361727</v>
       </c>
       <c r="D84" t="n">
-        <v>-2022.660802373139</v>
+        <v>-2528.597564768246</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10972</v>
+        <v>12674</v>
       </c>
       <c r="C85" t="n">
-        <v>5078.425941471709</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2738.118840239636</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17827</v>
+        <v>17245</v>
       </c>
       <c r="C86" t="n">
-        <v>3330.398926489151</v>
+        <v>6222.400724925114</v>
       </c>
       <c r="D86" t="n">
-        <v>990.0918252570773</v>
+        <v>3882.09362369304</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18813</v>
+        <v>25944</v>
       </c>
       <c r="C87" t="n">
-        <v>5631.827344060644</v>
+        <v>2423.772197379188</v>
       </c>
       <c r="D87" t="n">
-        <v>3291.52024282857</v>
+        <v>83.46509614711431</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>13438</v>
+        <v>14972</v>
       </c>
       <c r="C88" t="n">
-        <v>-1652.545724831168</v>
+        <v>317.6462988589344</v>
       </c>
       <c r="D88" t="n">
-        <v>-3992.852826063242</v>
+        <v>-2022.660802373139</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13877</v>
+        <v>10972</v>
       </c>
       <c r="C89" t="n">
-        <v>7867.327197179263</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D89" t="n">
-        <v>5527.020095947189</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>23143</v>
+        <v>12698</v>
       </c>
       <c r="C90" t="n">
-        <v>3776.063593092179</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1435.756491860106</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>13664</v>
+        <v>17827</v>
       </c>
       <c r="C91" t="n">
-        <v>391.4253955710776</v>
+        <v>3330.398926489151</v>
       </c>
       <c r="D91" t="n">
-        <v>-1948.881705660996</v>
+        <v>990.0918252570773</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>11663</v>
+        <v>18813</v>
       </c>
       <c r="C92" t="n">
-        <v>815.1574525604194</v>
+        <v>5631.827344060644</v>
       </c>
       <c r="D92" t="n">
-        <v>-1525.149648671654</v>
+        <v>3291.52024282857</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>13085</v>
+        <v>13438</v>
       </c>
       <c r="C93" t="n">
-        <v>7465.307540144119</v>
+        <v>-1652.545724831168</v>
       </c>
       <c r="D93" t="n">
-        <v>5125.000438912046</v>
+        <v>-3992.852826063242</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Continent': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10943</v>
+        <v>10872</v>
       </c>
       <c r="C94" t="n">
-        <v>2236.104571199859</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-104.2025300322143</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>13557</v>
+        <v>13877</v>
       </c>
       <c r="C95" t="n">
-        <v>7917.127553529108</v>
+        <v>7867.327197179263</v>
       </c>
       <c r="D95" t="n">
-        <v>5576.820452297035</v>
+        <v>5527.020095947189</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>18740</v>
+        <v>23143</v>
       </c>
       <c r="C96" t="n">
-        <v>2692.274582513705</v>
+        <v>3776.063593092179</v>
       </c>
       <c r="D96" t="n">
-        <v>351.9674812816315</v>
+        <v>1435.756491860106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'GDP': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>11366</v>
+        <v>13664</v>
       </c>
       <c r="C97" t="n">
-        <v>4661.904256252215</v>
+        <v>391.4253955710776</v>
       </c>
       <c r="D97" t="n">
-        <v>2321.597155020142</v>
+        <v>-1948.881705660996</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>12355</v>
+        <v>11663</v>
       </c>
       <c r="C98" t="n">
-        <v>454.4028481109929</v>
+        <v>815.1574525604194</v>
       </c>
       <c r="D98" t="n">
-        <v>-1885.904253121081</v>
+        <v>-1525.149648671654</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>12510</v>
+        <v>13085</v>
       </c>
       <c r="C99" t="n">
-        <v>-323.8592370367664</v>
+        <v>7465.307540144119</v>
       </c>
       <c r="D99" t="n">
-        <v>-2664.16633826884</v>
+        <v>5125.000438912046</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>12510</v>
+        <v>10943</v>
       </c>
       <c r="C100" t="n">
-        <v>-323.8592370367664</v>
+        <v>2236.104571199859</v>
       </c>
       <c r="D100" t="n">
-        <v>-2664.16633826884</v>
+        <v>-104.2025300322143</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>11596</v>
+        <v>13557</v>
       </c>
       <c r="C101" t="n">
-        <v>4066.342337608624</v>
+        <v>7917.127553529108</v>
       </c>
       <c r="D101" t="n">
-        <v>1726.035236376551</v>
+        <v>5576.820452297035</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>11596</v>
+        <v>18740</v>
       </c>
       <c r="C102" t="n">
-        <v>4066.342337608624</v>
+        <v>2692.274582513705</v>
       </c>
       <c r="D102" t="n">
-        <v>1726.035236376551</v>
+        <v>351.9674812816315</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>13679</v>
+        <v>11366</v>
       </c>
       <c r="C103" t="n">
-        <v>6219.010864701521</v>
+        <v>4661.904256252215</v>
       </c>
       <c r="D103" t="n">
-        <v>3878.703763469448</v>
+        <v>2321.597155020142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>15813</v>
+        <v>12355</v>
       </c>
       <c r="C104" t="n">
-        <v>427.6763280714937</v>
+        <v>454.4028481109929</v>
       </c>
       <c r="D104" t="n">
-        <v>-1912.63077316058</v>
+        <v>-1885.904253121081</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>11596</v>
+        <v>12510</v>
       </c>
       <c r="C105" t="n">
-        <v>4066.342337608624</v>
+        <v>-323.8592370367664</v>
       </c>
       <c r="D105" t="n">
-        <v>1726.035236376551</v>
+        <v>-2664.16633826884</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>12560</v>
+        <v>12510</v>
       </c>
       <c r="C106" t="n">
-        <v>1009.923937087675</v>
+        <v>-323.8592370367664</v>
       </c>
       <c r="D106" t="n">
-        <v>-1330.383164144399</v>
+        <v>-2664.16633826884</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Continent': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>12008</v>
+        <v>10559</v>
       </c>
       <c r="C107" t="n">
-        <v>9981.415860209518</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>7641.108758977444</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>{'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12560</v>
+        <v>13397</v>
       </c>
       <c r="C108" t="n">
-        <v>1009.923937087675</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>-1330.383164144399</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>{'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2262,5072 +2262,5392 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'FormalEducation': np.int64(1)}</t>
+          <t>{'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>11691</v>
+        <v>11596</v>
       </c>
       <c r="C110" t="n">
-        <v>4251.959692031292</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D110" t="n">
-        <v>1911.652590799218</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>14957</v>
+        <v>13679</v>
       </c>
       <c r="C111" t="n">
-        <v>1340.659369050429</v>
+        <v>6219.010864701521</v>
       </c>
       <c r="D111" t="n">
-        <v>-999.647732181644</v>
+        <v>3878.703763469448</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>15074</v>
+        <v>15813</v>
       </c>
       <c r="C112" t="n">
-        <v>1275.114723627302</v>
+        <v>427.6763280714937</v>
       </c>
       <c r="D112" t="n">
-        <v>-1065.192377604772</v>
+        <v>-1912.63077316058</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>22758</v>
+        <v>11596</v>
       </c>
       <c r="C113" t="n">
-        <v>2197.439780536019</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D113" t="n">
-        <v>-142.8673206960548</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>19121</v>
+        <v>12560</v>
       </c>
       <c r="C114" t="n">
-        <v>5550.522489062577</v>
+        <v>1009.923937087675</v>
       </c>
       <c r="D114" t="n">
-        <v>3210.215387830503</v>
+        <v>-1330.383164144399</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>16050</v>
+        <v>12008</v>
       </c>
       <c r="C115" t="n">
-        <v>4665.224913821713</v>
+        <v>9981.415860209518</v>
       </c>
       <c r="D115" t="n">
-        <v>2324.91781258964</v>
+        <v>7641.108758977444</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>10053</v>
+        <v>12560</v>
       </c>
       <c r="C116" t="n">
-        <v>-1392.025540268806</v>
+        <v>1009.923937087675</v>
       </c>
       <c r="D116" t="n">
-        <v>-3732.332641500879</v>
+        <v>-1330.383164144399</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>12999</v>
+        <v>11596</v>
       </c>
       <c r="C117" t="n">
-        <v>4063.901896477307</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D117" t="n">
-        <v>1723.594795245233</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'FormalEducation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>19451</v>
+        <v>11691</v>
       </c>
       <c r="C118" t="n">
-        <v>2592.150019832294</v>
+        <v>4251.959692031292</v>
       </c>
       <c r="D118" t="n">
-        <v>251.8429186002209</v>
+        <v>1911.652590799218</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>10882</v>
+        <v>14957</v>
       </c>
       <c r="C119" t="n">
-        <v>112.6355661571998</v>
+        <v>1340.659369050429</v>
       </c>
       <c r="D119" t="n">
-        <v>-2227.671535074874</v>
+        <v>-999.647732181644</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>12836</v>
+        <v>15074</v>
       </c>
       <c r="C120" t="n">
-        <v>4674.258817271638</v>
+        <v>1275.114723627302</v>
       </c>
       <c r="D120" t="n">
-        <v>2333.951716039564</v>
+        <v>-1065.192377604772</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>13035</v>
+        <v>22758</v>
       </c>
       <c r="C121" t="n">
-        <v>5187.926517791057</v>
+        <v>2197.439780536019</v>
       </c>
       <c r="D121" t="n">
-        <v>2847.619416558984</v>
+        <v>-142.8673206960548</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>10305</v>
+        <v>19121</v>
       </c>
       <c r="C122" t="n">
-        <v>9003.621088091693</v>
+        <v>5550.522489062577</v>
       </c>
       <c r="D122" t="n">
-        <v>6663.31398685962</v>
+        <v>3210.215387830503</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>10400</v>
+        <v>16050</v>
       </c>
       <c r="C123" t="n">
-        <v>5536.216851169756</v>
+        <v>4665.224913821713</v>
       </c>
       <c r="D123" t="n">
-        <v>3195.909749937683</v>
+        <v>2324.91781258964</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>11966</v>
+        <v>10053</v>
       </c>
       <c r="C124" t="n">
-        <v>-343.8013391129177</v>
+        <v>-1392.025540268806</v>
       </c>
       <c r="D124" t="n">
-        <v>-2684.108440344991</v>
+        <v>-3732.332641500879</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>17486</v>
+        <v>12999</v>
       </c>
       <c r="C125" t="n">
-        <v>767.5872497939635</v>
+        <v>4063.901896477307</v>
       </c>
       <c r="D125" t="n">
-        <v>-1572.71985143811</v>
+        <v>1723.594795245233</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>14278</v>
+        <v>19451</v>
       </c>
       <c r="C126" t="n">
-        <v>4672.492968898711</v>
+        <v>2592.150019832294</v>
       </c>
       <c r="D126" t="n">
-        <v>2332.185867666638</v>
+        <v>251.8429186002209</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>13130</v>
+        <v>10882</v>
       </c>
       <c r="C127" t="n">
-        <v>4363.457854696548</v>
+        <v>112.6355661571998</v>
       </c>
       <c r="D127" t="n">
-        <v>2023.150753464474</v>
+        <v>-2227.671535074874</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>14399</v>
+        <v>12836</v>
       </c>
       <c r="C128" t="n">
-        <v>1162.340739990145</v>
+        <v>4674.258817271638</v>
       </c>
       <c r="D128" t="n">
-        <v>-1177.966361241928</v>
+        <v>2333.951716039564</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16976</v>
+        <v>13035</v>
       </c>
       <c r="C129" t="n">
-        <v>-274.3365390860194</v>
+        <v>5187.926517791057</v>
       </c>
       <c r="D129" t="n">
-        <v>-2614.643640318093</v>
+        <v>2847.619416558984</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>14176</v>
+        <v>10305</v>
       </c>
       <c r="C130" t="n">
-        <v>1755.486580358516</v>
+        <v>9003.621088091693</v>
       </c>
       <c r="D130" t="n">
-        <v>-584.8205208735576</v>
+        <v>6663.31398685962</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'FormalEducation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>12301</v>
+        <v>10400</v>
       </c>
       <c r="C131" t="n">
-        <v>-380.2865106723702</v>
+        <v>5536.216851169756</v>
       </c>
       <c r="D131" t="n">
-        <v>-2720.593611904444</v>
+        <v>3195.909749937683</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14130</v>
+        <v>11966</v>
       </c>
       <c r="C132" t="n">
-        <v>-421.8483115292244</v>
+        <v>-343.8013391129177</v>
       </c>
       <c r="D132" t="n">
-        <v>-2762.155412761298</v>
+        <v>-2684.108440344991</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>21544</v>
+        <v>17486</v>
       </c>
       <c r="C133" t="n">
-        <v>3375.802242400003</v>
+        <v>767.5872497939635</v>
       </c>
       <c r="D133" t="n">
-        <v>1035.495141167929</v>
+        <v>-1572.71985143811</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>18868</v>
+        <v>14278</v>
       </c>
       <c r="C134" t="n">
-        <v>2960.932043266058</v>
+        <v>4672.492968898711</v>
       </c>
       <c r="D134" t="n">
-        <v>620.6249420339846</v>
+        <v>2332.185867666638</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>11796</v>
+        <v>13130</v>
       </c>
       <c r="C135" t="n">
-        <v>-3043.894369965103</v>
+        <v>4363.457854696548</v>
       </c>
       <c r="D135" t="n">
-        <v>-5384.201471197176</v>
+        <v>2023.150753464474</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>14314</v>
+        <v>14399</v>
       </c>
       <c r="C136" t="n">
-        <v>4911.611412551781</v>
+        <v>1162.340739990145</v>
       </c>
       <c r="D136" t="n">
-        <v>2571.304311319707</v>
+        <v>-1177.966361241928</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>21574</v>
+        <v>16976</v>
       </c>
       <c r="C137" t="n">
-        <v>927.0512339806879</v>
+        <v>-274.3365390860194</v>
       </c>
       <c r="D137" t="n">
-        <v>-1413.255867251386</v>
+        <v>-2614.643640318093</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>12461</v>
+        <v>14176</v>
       </c>
       <c r="C138" t="n">
-        <v>-2098.07417707096</v>
+        <v>1755.486580358516</v>
       </c>
       <c r="D138" t="n">
-        <v>-4438.381278303033</v>
+        <v>-584.8205208735576</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>10505</v>
+        <v>12301</v>
       </c>
       <c r="C139" t="n">
-        <v>-23820.13004126154</v>
+        <v>-380.2865106723702</v>
       </c>
       <c r="D139" t="n">
-        <v>-26160.43714249361</v>
+        <v>-2720.593611904444</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>14590</v>
+        <v>14130</v>
       </c>
       <c r="C140" t="n">
-        <v>3441.695337919604</v>
+        <v>-421.8483115292244</v>
       </c>
       <c r="D140" t="n">
-        <v>1101.388236687531</v>
+        <v>-2762.155412761298</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>15834</v>
+        <v>21544</v>
       </c>
       <c r="C141" t="n">
-        <v>6426.389241026237</v>
+        <v>3375.802242400003</v>
       </c>
       <c r="D141" t="n">
-        <v>4086.082139794164</v>
+        <v>1035.495141167929</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>11249</v>
+        <v>18868</v>
       </c>
       <c r="C142" t="n">
-        <v>-4634.267733025268</v>
+        <v>2960.932043266058</v>
       </c>
       <c r="D142" t="n">
-        <v>-6974.574834257342</v>
+        <v>620.6249420339846</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>11648</v>
+        <v>11796</v>
       </c>
       <c r="C143" t="n">
-        <v>7438.251005552809</v>
+        <v>-3043.894369965103</v>
       </c>
       <c r="D143" t="n">
-        <v>5097.943904320736</v>
+        <v>-5384.201471197176</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>19359</v>
+        <v>10483</v>
       </c>
       <c r="C144" t="n">
-        <v>3211.571063183206</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>871.2639619511324</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>11456</v>
+        <v>14314</v>
       </c>
       <c r="C145" t="n">
-        <v>-2125.849127637226</v>
+        <v>4911.611412551781</v>
       </c>
       <c r="D145" t="n">
-        <v>-4466.156228869299</v>
+        <v>2571.304311319707</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>10785</v>
+        <v>21574</v>
       </c>
       <c r="C146" t="n">
-        <v>9393.881054739793</v>
+        <v>927.0512339806879</v>
       </c>
       <c r="D146" t="n">
-        <v>7053.57395350772</v>
+        <v>-1413.255867251386</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>11296</v>
+        <v>12461</v>
       </c>
       <c r="C147" t="n">
-        <v>9423.099574725366</v>
+        <v>-2098.07417707096</v>
       </c>
       <c r="D147" t="n">
-        <v>7082.792473493292</v>
+        <v>-4438.381278303033</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>15803</v>
+        <v>10505</v>
       </c>
       <c r="C148" t="n">
-        <v>3255.196035990851</v>
+        <v>-23820.13004126154</v>
       </c>
       <c r="D148" t="n">
-        <v>914.8889347587774</v>
+        <v>-26160.43714249361</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>10223</v>
+        <v>14590</v>
       </c>
       <c r="C149" t="n">
-        <v>1476.285016460482</v>
+        <v>3441.695337919604</v>
       </c>
       <c r="D149" t="n">
-        <v>-864.0220847715914</v>
+        <v>1101.388236687531</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>10496</v>
+        <v>15834</v>
       </c>
       <c r="C150" t="n">
-        <v>-3091.605167205335</v>
+        <v>6426.389241026237</v>
       </c>
       <c r="D150" t="n">
-        <v>-5431.912268437409</v>
+        <v>4086.082139794164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>10496</v>
+        <v>11249</v>
       </c>
       <c r="C151" t="n">
-        <v>-3091.605167205335</v>
+        <v>-4634.267733025268</v>
       </c>
       <c r="D151" t="n">
-        <v>-5431.912268437409</v>
+        <v>-6974.574834257342</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>11494</v>
+        <v>11648</v>
       </c>
       <c r="C152" t="n">
-        <v>4967.73340712333</v>
+        <v>7438.251005552809</v>
       </c>
       <c r="D152" t="n">
-        <v>2627.426305891257</v>
+        <v>5097.943904320736</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>13175</v>
+        <v>19359</v>
       </c>
       <c r="C153" t="n">
-        <v>-1805.864225629476</v>
+        <v>3211.571063183206</v>
       </c>
       <c r="D153" t="n">
-        <v>-4146.171326861549</v>
+        <v>871.2639619511324</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>10386</v>
+        <v>11456</v>
       </c>
       <c r="C154" t="n">
-        <v>-1318.847324327334</v>
+        <v>-2125.849127637226</v>
       </c>
       <c r="D154" t="n">
-        <v>-3659.154425559407</v>
+        <v>-4466.156228869299</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>10386</v>
+        <v>10785</v>
       </c>
       <c r="C155" t="n">
-        <v>-1318.847324327334</v>
+        <v>9393.881054739793</v>
       </c>
       <c r="D155" t="n">
-        <v>-3659.154425559407</v>
+        <v>7053.57395350772</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>10385</v>
+        <v>11296</v>
       </c>
       <c r="C156" t="n">
-        <v>3877.754700314994</v>
+        <v>9423.099574725366</v>
       </c>
       <c r="D156" t="n">
-        <v>1537.447599082921</v>
+        <v>7082.792473493292</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>10385</v>
+        <v>15803</v>
       </c>
       <c r="C157" t="n">
-        <v>3877.754700314994</v>
+        <v>3255.196035990851</v>
       </c>
       <c r="D157" t="n">
-        <v>1537.447599082921</v>
+        <v>914.8889347587774</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10385</v>
+        <v>10223</v>
       </c>
       <c r="C158" t="n">
-        <v>3877.754700314994</v>
+        <v>1476.285016460482</v>
       </c>
       <c r="D158" t="n">
-        <v>1537.447599082921</v>
+        <v>-864.0220847715914</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>10385</v>
+        <v>10496</v>
       </c>
       <c r="C159" t="n">
-        <v>3877.754700314994</v>
+        <v>-3091.605167205335</v>
       </c>
       <c r="D159" t="n">
-        <v>1537.447599082921</v>
+        <v>-5431.912268437409</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10972</v>
+        <v>10496</v>
       </c>
       <c r="C160" t="n">
-        <v>5078.425941471709</v>
+        <v>-3091.605167205335</v>
       </c>
       <c r="D160" t="n">
-        <v>2738.118840239636</v>
+        <v>-5431.912268437409</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>10972</v>
+        <v>11084</v>
       </c>
       <c r="C161" t="n">
-        <v>5078.425941471709</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>2738.118840239636</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>10972</v>
+        <v>11494</v>
       </c>
       <c r="C162" t="n">
-        <v>5078.425941471709</v>
+        <v>4967.73340712333</v>
       </c>
       <c r="D162" t="n">
-        <v>2738.118840239636</v>
+        <v>2627.426305891257</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>10972</v>
+        <v>13175</v>
       </c>
       <c r="C163" t="n">
-        <v>5078.425941471709</v>
+        <v>-1805.864225629476</v>
       </c>
       <c r="D163" t="n">
-        <v>2738.118840239636</v>
+        <v>-4146.171326861549</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>11596</v>
+        <v>10386</v>
       </c>
       <c r="C164" t="n">
-        <v>4066.342337608624</v>
+        <v>-1318.847324327334</v>
       </c>
       <c r="D164" t="n">
-        <v>1726.035236376551</v>
+        <v>-3659.154425559407</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>11596</v>
+        <v>10386</v>
       </c>
       <c r="C165" t="n">
-        <v>4066.342337608624</v>
+        <v>-1318.847324327334</v>
       </c>
       <c r="D165" t="n">
-        <v>1726.035236376551</v>
+        <v>-3659.154425559407</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11596</v>
+        <v>10385</v>
       </c>
       <c r="C166" t="n">
-        <v>4066.342337608624</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D166" t="n">
-        <v>1726.035236376551</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>11596</v>
+        <v>10385</v>
       </c>
       <c r="C167" t="n">
-        <v>4066.342337608624</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D167" t="n">
-        <v>1726.035236376551</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>11596</v>
+        <v>10385</v>
       </c>
       <c r="C168" t="n">
-        <v>4066.342337608624</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D168" t="n">
-        <v>1726.035236376551</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>11596</v>
+        <v>10385</v>
       </c>
       <c r="C169" t="n">
-        <v>4066.342337608624</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D169" t="n">
-        <v>1726.035236376551</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>13856</v>
+        <v>10972</v>
       </c>
       <c r="C170" t="n">
-        <v>4353.147872626235</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D170" t="n">
-        <v>2012.840771394161</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>11051</v>
+        <v>10972</v>
       </c>
       <c r="C171" t="n">
-        <v>6756.745955917714</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D171" t="n">
-        <v>4416.438854685641</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>11440</v>
+        <v>10972</v>
       </c>
       <c r="C172" t="n">
-        <v>4373.417759398733</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D172" t="n">
-        <v>2033.11065816666</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>11889</v>
+        <v>10972</v>
       </c>
       <c r="C173" t="n">
-        <v>774.3688736600833</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D173" t="n">
-        <v>-1565.93822757199</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>17295</v>
+        <v>11596</v>
       </c>
       <c r="C174" t="n">
-        <v>390.9344655632091</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D174" t="n">
-        <v>-1949.372635668864</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>14188</v>
+        <v>11596</v>
       </c>
       <c r="C175" t="n">
-        <v>4794.689048666779</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D175" t="n">
-        <v>2454.381947434706</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>12312</v>
+        <v>11596</v>
       </c>
       <c r="C176" t="n">
-        <v>3382.024785964035</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D176" t="n">
-        <v>1041.717684731962</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>14596</v>
+        <v>11596</v>
       </c>
       <c r="C177" t="n">
-        <v>1394.811898185596</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D177" t="n">
-        <v>-945.4952030464772</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>17288</v>
+        <v>11596</v>
       </c>
       <c r="C178" t="n">
-        <v>2565.822962305302</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D178" t="n">
-        <v>225.5158610732287</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>14490</v>
+        <v>11596</v>
       </c>
       <c r="C179" t="n">
-        <v>4922.943303963018</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D179" t="n">
-        <v>2582.636202730944</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>11902</v>
+        <v>13856</v>
       </c>
       <c r="C180" t="n">
-        <v>1117.693790549702</v>
+        <v>4353.147872626235</v>
       </c>
       <c r="D180" t="n">
-        <v>-1222.613310682372</v>
+        <v>2012.840771394161</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>14737</v>
+        <v>11051</v>
       </c>
       <c r="C181" t="n">
-        <v>2872.400397355044</v>
+        <v>6756.745955917714</v>
       </c>
       <c r="D181" t="n">
-        <v>532.0932961229705</v>
+        <v>4416.438854685641</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Exercise': np.int64(3), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>10125</v>
+        <v>11440</v>
       </c>
       <c r="C182" t="n">
-        <v>-499.0969805741964</v>
+        <v>4373.417759398733</v>
       </c>
       <c r="D182" t="n">
-        <v>-2839.40408180627</v>
+        <v>2033.11065816666</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>22014</v>
+        <v>11889</v>
       </c>
       <c r="C183" t="n">
-        <v>5521.987072049285</v>
+        <v>774.3688736600833</v>
       </c>
       <c r="D183" t="n">
-        <v>3181.679970817211</v>
+        <v>-1565.93822757199</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>18145</v>
+        <v>17295</v>
       </c>
       <c r="C184" t="n">
-        <v>4249.013901088885</v>
+        <v>390.9344655632091</v>
       </c>
       <c r="D184" t="n">
-        <v>1908.706799856812</v>
+        <v>-1949.372635668864</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>11621</v>
+        <v>14188</v>
       </c>
       <c r="C185" t="n">
-        <v>1859.404373386846</v>
+        <v>4794.689048666779</v>
       </c>
       <c r="D185" t="n">
-        <v>-480.9027278452272</v>
+        <v>2454.381947434706</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>14939</v>
+        <v>12312</v>
       </c>
       <c r="C186" t="n">
-        <v>5802.063899516207</v>
+        <v>3382.024785964035</v>
       </c>
       <c r="D186" t="n">
-        <v>3461.756798284134</v>
+        <v>1041.717684731962</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>22370</v>
+        <v>14596</v>
       </c>
       <c r="C187" t="n">
-        <v>3186.476773538612</v>
+        <v>1394.811898185596</v>
       </c>
       <c r="D187" t="n">
-        <v>846.1696723065388</v>
+        <v>-945.4952030464772</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>12535</v>
+        <v>17288</v>
       </c>
       <c r="C188" t="n">
-        <v>2307.223348076758</v>
+        <v>2565.822962305302</v>
       </c>
       <c r="D188" t="n">
-        <v>-33.08375315531521</v>
+        <v>225.5158610732287</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>10619</v>
+        <v>14490</v>
       </c>
       <c r="C189" t="n">
-        <v>7381.623435925835</v>
+        <v>4922.943303963018</v>
       </c>
       <c r="D189" t="n">
-        <v>5041.316334693762</v>
+        <v>2582.636202730944</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>14992</v>
+        <v>11902</v>
       </c>
       <c r="C190" t="n">
-        <v>3294.249918384744</v>
+        <v>1117.693790549702</v>
       </c>
       <c r="D190" t="n">
-        <v>953.9428171526711</v>
+        <v>-1222.613310682372</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>15339</v>
+        <v>14737</v>
       </c>
       <c r="C191" t="n">
-        <v>7918.966750714838</v>
+        <v>2872.400397355044</v>
       </c>
       <c r="D191" t="n">
-        <v>5578.659649482765</v>
+        <v>532.0932961229705</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Exercise': np.int64(3), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>11044</v>
+        <v>10125</v>
       </c>
       <c r="C192" t="n">
-        <v>808.0857006403771</v>
+        <v>-499.0969805741964</v>
       </c>
       <c r="D192" t="n">
-        <v>-1532.221400591696</v>
+        <v>-2839.40408180627</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>12197</v>
+        <v>22014</v>
       </c>
       <c r="C193" t="n">
-        <v>7502.578578369563</v>
+        <v>5521.987072049285</v>
       </c>
       <c r="D193" t="n">
-        <v>5162.271477137489</v>
+        <v>3181.679970817211</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>20079</v>
+        <v>18145</v>
       </c>
       <c r="C194" t="n">
-        <v>5950.643928595566</v>
+        <v>4249.013901088885</v>
       </c>
       <c r="D194" t="n">
-        <v>3610.336827363492</v>
+        <v>1908.706799856812</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>11483</v>
+        <v>11621</v>
       </c>
       <c r="C195" t="n">
-        <v>3259.941165893908</v>
+        <v>1859.404373386846</v>
       </c>
       <c r="D195" t="n">
-        <v>919.6340646618351</v>
+        <v>-480.9027278452272</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>11288</v>
+        <v>11312</v>
       </c>
       <c r="C196" t="n">
-        <v>7888.509548502787</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>5548.202447270713</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>11669</v>
+        <v>14939</v>
       </c>
       <c r="C197" t="n">
-        <v>7020.024991600413</v>
+        <v>5802.063899516207</v>
       </c>
       <c r="D197" t="n">
-        <v>4679.71789036834</v>
+        <v>3461.756798284134</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>15555</v>
+        <v>22370</v>
       </c>
       <c r="C198" t="n">
-        <v>4836.092716971086</v>
+        <v>3186.476773538612</v>
       </c>
       <c r="D198" t="n">
-        <v>2495.785615739012</v>
+        <v>846.1696723065388</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>10346</v>
+        <v>12535</v>
       </c>
       <c r="C199" t="n">
-        <v>2683.209305494984</v>
+        <v>2307.223348076758</v>
       </c>
       <c r="D199" t="n">
-        <v>342.9022042629103</v>
+        <v>-33.08375315531521</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>10346</v>
+        <v>10619</v>
       </c>
       <c r="C200" t="n">
-        <v>2683.209305494984</v>
+        <v>7381.623435925835</v>
       </c>
       <c r="D200" t="n">
-        <v>342.9022042629103</v>
+        <v>5041.316334693762</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>10385</v>
+        <v>14992</v>
       </c>
       <c r="C201" t="n">
-        <v>3877.754700314994</v>
+        <v>3294.249918384744</v>
       </c>
       <c r="D201" t="n">
-        <v>1537.447599082921</v>
+        <v>953.9428171526711</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>10385</v>
+        <v>15339</v>
       </c>
       <c r="C202" t="n">
-        <v>3877.754700314994</v>
+        <v>7918.966750714838</v>
       </c>
       <c r="D202" t="n">
-        <v>1537.447599082921</v>
+        <v>5578.659649482765</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>12117</v>
+        <v>11044</v>
       </c>
       <c r="C203" t="n">
-        <v>6219.180690373893</v>
+        <v>808.0857006403771</v>
       </c>
       <c r="D203" t="n">
-        <v>3878.873589141819</v>
+        <v>-1532.221400591696</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>13202</v>
+        <v>12197</v>
       </c>
       <c r="C204" t="n">
-        <v>3094.558685019645</v>
+        <v>7502.578578369563</v>
       </c>
       <c r="D204" t="n">
-        <v>754.2515837875712</v>
+        <v>5162.271477137489</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>10385</v>
+        <v>20079</v>
       </c>
       <c r="C205" t="n">
-        <v>3877.754700314994</v>
+        <v>5950.643928595566</v>
       </c>
       <c r="D205" t="n">
-        <v>1537.447599082921</v>
+        <v>3610.336827363492</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>10563</v>
+        <v>11483</v>
       </c>
       <c r="C206" t="n">
-        <v>2798.587858446254</v>
+        <v>3259.941165893908</v>
       </c>
       <c r="D206" t="n">
-        <v>458.280757214181</v>
+        <v>919.6340646618351</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>10737</v>
+        <v>11288</v>
       </c>
       <c r="C207" t="n">
-        <v>9041.054238074887</v>
+        <v>7888.509548502787</v>
       </c>
       <c r="D207" t="n">
-        <v>6700.747136842813</v>
+        <v>5548.202447270713</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>10563</v>
+        <v>11669</v>
       </c>
       <c r="C208" t="n">
-        <v>2798.587858446254</v>
+        <v>7020.024991600413</v>
       </c>
       <c r="D208" t="n">
-        <v>458.280757214181</v>
+        <v>4679.71789036834</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>10385</v>
+        <v>15555</v>
       </c>
       <c r="C209" t="n">
-        <v>3877.754700314994</v>
+        <v>4836.092716971086</v>
       </c>
       <c r="D209" t="n">
-        <v>1537.447599082921</v>
+        <v>2495.785615739012</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>10704</v>
+        <v>10346</v>
       </c>
       <c r="C210" t="n">
-        <v>7925.890221828875</v>
+        <v>2683.209305494984</v>
       </c>
       <c r="D210" t="n">
-        <v>5585.583120596802</v>
+        <v>342.9022042629103</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>12006</v>
+        <v>10346</v>
       </c>
       <c r="C211" t="n">
-        <v>7662.616496452828</v>
+        <v>2683.209305494984</v>
       </c>
       <c r="D211" t="n">
-        <v>5322.309395220755</v>
+        <v>342.9022042629103</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>11034</v>
+        <v>11939</v>
       </c>
       <c r="C212" t="n">
-        <v>6327.972917307961</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>3987.665816075888</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>12139</v>
+        <v>10385</v>
       </c>
       <c r="C213" t="n">
-        <v>6362.50560886858</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D213" t="n">
-        <v>4022.198507636506</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>10139</v>
+        <v>10385</v>
       </c>
       <c r="C214" t="n">
-        <v>6570.554471760831</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D214" t="n">
-        <v>4230.247370528758</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>10763</v>
+        <v>12117</v>
       </c>
       <c r="C215" t="n">
-        <v>7311.665258780144</v>
+        <v>6219.180690373893</v>
       </c>
       <c r="D215" t="n">
-        <v>4971.35815754807</v>
+        <v>3878.873589141819</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>13465</v>
+        <v>13202</v>
       </c>
       <c r="C216" t="n">
-        <v>536.7328859023191</v>
+        <v>3094.558685019645</v>
       </c>
       <c r="D216" t="n">
-        <v>-1803.574215329754</v>
+        <v>754.2515837875712</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>11004</v>
+        <v>10385</v>
       </c>
       <c r="C217" t="n">
-        <v>2058.727309246</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D217" t="n">
-        <v>-281.5797919860734</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>11142</v>
+        <v>10563</v>
       </c>
       <c r="C218" t="n">
-        <v>1309.738905970183</v>
+        <v>2798.587858446254</v>
       </c>
       <c r="D218" t="n">
-        <v>-1030.56819526189</v>
+        <v>458.280757214181</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>16152</v>
+        <v>10737</v>
       </c>
       <c r="C219" t="n">
-        <v>3832.105243099399</v>
+        <v>9041.054238074887</v>
       </c>
       <c r="D219" t="n">
-        <v>1491.798141867325</v>
+        <v>6700.747136842813</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>14637</v>
+        <v>10563</v>
       </c>
       <c r="C220" t="n">
-        <v>2853.971894152998</v>
+        <v>2798.587858446254</v>
       </c>
       <c r="D220" t="n">
-        <v>513.6647929209248</v>
+        <v>458.280757214181</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Student': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>11004</v>
+        <v>10385</v>
       </c>
       <c r="C221" t="n">
-        <v>5915.441578514344</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D221" t="n">
-        <v>3575.13447728227</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>16344</v>
+        <v>10704</v>
       </c>
       <c r="C222" t="n">
-        <v>1591.59071255439</v>
+        <v>7925.890221828875</v>
       </c>
       <c r="D222" t="n">
-        <v>-748.7163886776834</v>
+        <v>5585.583120596802</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>10919</v>
+        <v>12006</v>
       </c>
       <c r="C223" t="n">
-        <v>4424.382795375952</v>
+        <v>7662.616496452828</v>
       </c>
       <c r="D223" t="n">
-        <v>2084.075694143879</v>
+        <v>5322.309395220755</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>12028</v>
+        <v>11034</v>
       </c>
       <c r="C224" t="n">
-        <v>5992.856678069495</v>
+        <v>6327.972917307961</v>
       </c>
       <c r="D224" t="n">
-        <v>3652.549576837421</v>
+        <v>3987.665816075888</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>14474</v>
+        <v>12139</v>
       </c>
       <c r="C225" t="n">
-        <v>3575.593253984845</v>
+        <v>6362.50560886858</v>
       </c>
       <c r="D225" t="n">
-        <v>1235.286152752772</v>
+        <v>4022.198507636506</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>12115</v>
+        <v>10139</v>
       </c>
       <c r="C226" t="n">
-        <v>3513.505101042226</v>
+        <v>6570.554471760831</v>
       </c>
       <c r="D226" t="n">
-        <v>1173.197999810153</v>
+        <v>4230.247370528758</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'FormalEducation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>10391</v>
+        <v>10763</v>
       </c>
       <c r="C227" t="n">
-        <v>-2266.521582517219</v>
+        <v>7311.665258780144</v>
       </c>
       <c r="D227" t="n">
-        <v>-4606.828683749292</v>
+        <v>4971.35815754807</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>15929</v>
+        <v>13465</v>
       </c>
       <c r="C228" t="n">
-        <v>3027.619830074138</v>
+        <v>536.7328859023191</v>
       </c>
       <c r="D228" t="n">
-        <v>687.3127288420651</v>
+        <v>-1803.574215329754</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>13559</v>
+        <v>11004</v>
       </c>
       <c r="C229" t="n">
-        <v>159.0069874195543</v>
+        <v>2058.727309246</v>
       </c>
       <c r="D229" t="n">
-        <v>-2181.300113812519</v>
+        <v>-281.5797919860734</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>10516</v>
+        <v>11142</v>
       </c>
       <c r="C230" t="n">
-        <v>6670.372442620797</v>
+        <v>1309.738905970183</v>
       </c>
       <c r="D230" t="n">
-        <v>4330.065341388724</v>
+        <v>-1030.56819526189</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>15905</v>
+        <v>16152</v>
       </c>
       <c r="C231" t="n">
-        <v>1910.554565979131</v>
+        <v>3832.105243099399</v>
       </c>
       <c r="D231" t="n">
-        <v>-429.7525352529422</v>
+        <v>1491.798141867325</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>10681</v>
+        <v>14637</v>
       </c>
       <c r="C232" t="n">
-        <v>2855.40312994342</v>
+        <v>2853.971894152998</v>
       </c>
       <c r="D232" t="n">
-        <v>515.0960287113467</v>
+        <v>513.6647929209248</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>11416</v>
+        <v>11004</v>
       </c>
       <c r="C233" t="n">
-        <v>3426.917414443661</v>
+        <v>5915.441578514344</v>
       </c>
       <c r="D233" t="n">
-        <v>1086.610313211587</v>
+        <v>3575.13447728227</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>14260</v>
+        <v>16344</v>
       </c>
       <c r="C234" t="n">
-        <v>2452.480129755012</v>
+        <v>1591.59071255439</v>
       </c>
       <c r="D234" t="n">
-        <v>112.1730285229382</v>
+        <v>-748.7163886776834</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>11296</v>
+        <v>10919</v>
       </c>
       <c r="C235" t="n">
-        <v>442.55644169217</v>
+        <v>4424.382795375952</v>
       </c>
       <c r="D235" t="n">
-        <v>-1897.750659539903</v>
+        <v>2084.075694143879</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>17563</v>
+        <v>12028</v>
       </c>
       <c r="C236" t="n">
-        <v>5587.324285242858</v>
+        <v>5992.856678069495</v>
       </c>
       <c r="D236" t="n">
-        <v>3247.017184010785</v>
+        <v>3652.549576837421</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>12751</v>
+        <v>14474</v>
       </c>
       <c r="C237" t="n">
-        <v>-892.3403341116156</v>
+        <v>3575.593253984845</v>
       </c>
       <c r="D237" t="n">
-        <v>-3232.647435343689</v>
+        <v>1235.286152752772</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>13152</v>
+        <v>12115</v>
       </c>
       <c r="C238" t="n">
-        <v>8748.648260132872</v>
+        <v>3513.505101042226</v>
       </c>
       <c r="D238" t="n">
-        <v>6408.341158900798</v>
+        <v>1173.197999810153</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>21900</v>
+        <v>10391</v>
       </c>
       <c r="C239" t="n">
-        <v>3938.413418209974</v>
+        <v>-2266.521582517219</v>
       </c>
       <c r="D239" t="n">
-        <v>1598.106316977901</v>
+        <v>-4606.828683749292</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>12923</v>
+        <v>15929</v>
       </c>
       <c r="C240" t="n">
-        <v>219.8874215572126</v>
+        <v>3027.619830074138</v>
       </c>
       <c r="D240" t="n">
-        <v>-2120.419679674861</v>
+        <v>687.3127288420651</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>10997</v>
+        <v>13559</v>
       </c>
       <c r="C241" t="n">
-        <v>-1530.719991371662</v>
+        <v>159.0069874195543</v>
       </c>
       <c r="D241" t="n">
-        <v>-3871.027092603736</v>
+        <v>-2181.300113812519</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>12410</v>
+        <v>10516</v>
       </c>
       <c r="C242" t="n">
-        <v>6999.783325033062</v>
+        <v>6670.372442620797</v>
       </c>
       <c r="D242" t="n">
-        <v>4659.476223800989</v>
+        <v>4330.065341388724</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Continent': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>10272</v>
+        <v>15905</v>
       </c>
       <c r="C243" t="n">
-        <v>3056.456653679437</v>
+        <v>1910.554565979131</v>
       </c>
       <c r="D243" t="n">
-        <v>716.1495524473639</v>
+        <v>-429.7525352529422</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>12741</v>
+        <v>10681</v>
       </c>
       <c r="C244" t="n">
-        <v>9232.98538398536</v>
+        <v>2855.40312994342</v>
       </c>
       <c r="D244" t="n">
-        <v>6892.678282753287</v>
+        <v>515.0960287113467</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>17456</v>
+        <v>11416</v>
       </c>
       <c r="C245" t="n">
-        <v>3557.872534128685</v>
+        <v>3426.917414443661</v>
       </c>
       <c r="D245" t="n">
-        <v>1217.565432896612</v>
+        <v>1086.610313211587</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'GDP': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>10622</v>
+        <v>14260</v>
       </c>
       <c r="C246" t="n">
-        <v>4712.860328015451</v>
+        <v>2452.480129755012</v>
       </c>
       <c r="D246" t="n">
-        <v>2372.553226783378</v>
+        <v>112.1730285229382</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'DevType': np.int64(2), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>11535</v>
+        <v>11296</v>
       </c>
       <c r="C247" t="n">
-        <v>1101.217080194121</v>
+        <v>442.55644169217</v>
       </c>
       <c r="D247" t="n">
-        <v>-1239.090021037952</v>
+        <v>-1897.750659539903</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>11850</v>
+        <v>17563</v>
       </c>
       <c r="C248" t="n">
-        <v>430.9560173006475</v>
+        <v>5587.324285242858</v>
       </c>
       <c r="D248" t="n">
-        <v>-1909.351083931426</v>
+        <v>3247.017184010785</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>11850</v>
+        <v>12751</v>
       </c>
       <c r="C249" t="n">
-        <v>430.9560173006475</v>
+        <v>-892.3403341116156</v>
       </c>
       <c r="D249" t="n">
-        <v>-1909.351083931426</v>
+        <v>-3232.647435343689</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(2)}</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>10972</v>
+        <v>10288</v>
       </c>
       <c r="C250" t="n">
-        <v>5078.425941471709</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>2738.118840239636</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>10972</v>
+        <v>13152</v>
       </c>
       <c r="C251" t="n">
-        <v>5078.425941471709</v>
+        <v>8748.648260132872</v>
       </c>
       <c r="D251" t="n">
-        <v>2738.118840239636</v>
+        <v>6408.341158900798</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>12950</v>
+        <v>21900</v>
       </c>
       <c r="C252" t="n">
-        <v>7445.983300728097</v>
+        <v>3938.413418209974</v>
       </c>
       <c r="D252" t="n">
-        <v>5105.676199496023</v>
+        <v>1598.106316977901</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>14972</v>
+        <v>12923</v>
       </c>
       <c r="C253" t="n">
-        <v>317.6462988589344</v>
+        <v>219.8874215572126</v>
       </c>
       <c r="D253" t="n">
-        <v>-2022.660802373139</v>
+        <v>-2120.419679674861</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>10972</v>
+        <v>10997</v>
       </c>
       <c r="C254" t="n">
-        <v>5078.425941471709</v>
+        <v>-1530.719991371662</v>
       </c>
       <c r="D254" t="n">
-        <v>2738.118840239636</v>
+        <v>-3871.027092603736</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>11846</v>
+        <v>12410</v>
       </c>
       <c r="C255" t="n">
-        <v>646.1931342251935</v>
+        <v>6999.783325033062</v>
       </c>
       <c r="D255" t="n">
-        <v>-1694.11396700688</v>
+        <v>4659.476223800989</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>11846</v>
+        <v>10272</v>
       </c>
       <c r="C256" t="n">
-        <v>646.1931342251935</v>
+        <v>3056.456653679437</v>
       </c>
       <c r="D256" t="n">
-        <v>-1694.11396700688</v>
+        <v>716.1495524473639</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>10972</v>
+        <v>12741</v>
       </c>
       <c r="C257" t="n">
-        <v>5078.425941471709</v>
+        <v>9232.98538398536</v>
       </c>
       <c r="D257" t="n">
-        <v>2738.118840239636</v>
+        <v>6892.678282753287</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>10509</v>
+        <v>17456</v>
       </c>
       <c r="C258" t="n">
-        <v>11522.3054139315</v>
+        <v>3557.872534128685</v>
       </c>
       <c r="D258" t="n">
-        <v>9181.998312699427</v>
+        <v>1217.565432896612</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>15786</v>
+        <v>10622</v>
       </c>
       <c r="C259" t="n">
-        <v>5516.772016586426</v>
+        <v>4712.860328015451</v>
       </c>
       <c r="D259" t="n">
-        <v>3176.464915354352</v>
+        <v>2372.553226783378</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>11152</v>
+        <v>11535</v>
       </c>
       <c r="C260" t="n">
-        <v>-1201.333926382576</v>
+        <v>1101.217080194121</v>
       </c>
       <c r="D260" t="n">
-        <v>-3541.64102761465</v>
+        <v>-1239.090021037952</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>11152</v>
+        <v>11850</v>
       </c>
       <c r="C261" t="n">
-        <v>-1201.333926382576</v>
+        <v>430.9560173006475</v>
       </c>
       <c r="D261" t="n">
-        <v>-3541.64102761465</v>
+        <v>-1909.351083931426</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>11413</v>
+        <v>11850</v>
       </c>
       <c r="C262" t="n">
-        <v>7656.732125276634</v>
+        <v>430.9560173006475</v>
       </c>
       <c r="D262" t="n">
-        <v>5316.425024044561</v>
+        <v>-1909.351083931426</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>13664</v>
+        <v>12674</v>
       </c>
       <c r="C263" t="n">
-        <v>391.4253955710776</v>
+        <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>-1948.881705660996</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>10822</v>
+        <v>10972</v>
       </c>
       <c r="C264" t="n">
-        <v>682.8365642140159</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D264" t="n">
-        <v>-1657.470537018057</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>10822</v>
+        <v>10972</v>
       </c>
       <c r="C265" t="n">
-        <v>682.8365642140159</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D265" t="n">
-        <v>-1657.470537018057</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>10482</v>
+        <v>12950</v>
       </c>
       <c r="C266" t="n">
-        <v>9496.145582768386</v>
+        <v>7445.983300728097</v>
       </c>
       <c r="D266" t="n">
-        <v>7155.838481536312</v>
+        <v>5105.676199496023</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>11366</v>
+        <v>14972</v>
       </c>
       <c r="C267" t="n">
-        <v>4661.904256252215</v>
+        <v>317.6462988589344</v>
       </c>
       <c r="D267" t="n">
-        <v>2321.597155020142</v>
+        <v>-2022.660802373139</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>12510</v>
+        <v>10972</v>
       </c>
       <c r="C268" t="n">
-        <v>-323.8592370367664</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D268" t="n">
-        <v>-2664.16633826884</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>11596</v>
+        <v>11846</v>
       </c>
       <c r="C269" t="n">
-        <v>4066.342337608624</v>
+        <v>646.1931342251935</v>
       </c>
       <c r="D269" t="n">
-        <v>1726.035236376551</v>
+        <v>-1694.11396700688</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>11596</v>
+        <v>11370</v>
       </c>
       <c r="C270" t="n">
-        <v>4066.342337608624</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>1726.035236376551</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>11596</v>
+        <v>11846</v>
       </c>
       <c r="C271" t="n">
-        <v>4066.342337608624</v>
+        <v>646.1931342251935</v>
       </c>
       <c r="D271" t="n">
-        <v>1726.035236376551</v>
+        <v>-1694.11396700688</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>12560</v>
+        <v>10972</v>
       </c>
       <c r="C272" t="n">
-        <v>1009.923937087675</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D272" t="n">
-        <v>-1330.383164144399</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>11596</v>
+        <v>10509</v>
       </c>
       <c r="C273" t="n">
-        <v>4066.342337608624</v>
+        <v>11522.3054139315</v>
       </c>
       <c r="D273" t="n">
-        <v>1726.035236376551</v>
+        <v>9181.998312699427</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>11142</v>
+        <v>15786</v>
       </c>
       <c r="C274" t="n">
-        <v>4835.513565240741</v>
+        <v>5516.772016586426</v>
       </c>
       <c r="D274" t="n">
-        <v>2495.206464008667</v>
+        <v>3176.464915354352</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>14190</v>
+        <v>11152</v>
       </c>
       <c r="C275" t="n">
-        <v>-84.88098322921519</v>
+        <v>-1201.333926382576</v>
       </c>
       <c r="D275" t="n">
-        <v>-2425.188084461289</v>
+        <v>-3541.64102761465</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>11741</v>
+        <v>11152</v>
       </c>
       <c r="C276" t="n">
-        <v>5758.43246413782</v>
+        <v>-1201.333926382576</v>
       </c>
       <c r="D276" t="n">
-        <v>3418.125362905746</v>
+        <v>-3541.64102761465</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>10192</v>
+        <v>10872</v>
       </c>
       <c r="C277" t="n">
-        <v>4277.873765615357</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>1937.566664383284</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>12037</v>
+        <v>11413</v>
       </c>
       <c r="C278" t="n">
-        <v>789.5599589468652</v>
+        <v>7656.732125276634</v>
       </c>
       <c r="D278" t="n">
-        <v>-1550.747142285208</v>
+        <v>5316.425024044561</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>14284</v>
+        <v>13664</v>
       </c>
       <c r="C279" t="n">
-        <v>1250.112275138068</v>
+        <v>391.4253955710776</v>
       </c>
       <c r="D279" t="n">
-        <v>-1090.194826094006</v>
+        <v>-1948.881705660996</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>12069</v>
+        <v>10822</v>
       </c>
       <c r="C280" t="n">
-        <v>3956.389365588959</v>
+        <v>682.8365642140159</v>
       </c>
       <c r="D280" t="n">
-        <v>1616.082264356885</v>
+        <v>-1657.470537018057</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>12261</v>
+        <v>10822</v>
       </c>
       <c r="C281" t="n">
-        <v>1505.360330967259</v>
+        <v>682.8365642140159</v>
       </c>
       <c r="D281" t="n">
-        <v>-834.9467702648142</v>
+        <v>-1657.470537018057</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>18136</v>
+        <v>10482</v>
       </c>
       <c r="C282" t="n">
-        <v>4954.869938734231</v>
+        <v>9496.145582768386</v>
       </c>
       <c r="D282" t="n">
-        <v>2614.562837502158</v>
+        <v>7155.838481536312</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>15007</v>
+        <v>11366</v>
       </c>
       <c r="C283" t="n">
-        <v>4542.007572706861</v>
+        <v>4661.904256252215</v>
       </c>
       <c r="D283" t="n">
-        <v>2201.700471474787</v>
+        <v>2321.597155020142</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>12348</v>
+        <v>12510</v>
       </c>
       <c r="C284" t="n">
-        <v>4791.303727040843</v>
+        <v>-323.8592370367664</v>
       </c>
       <c r="D284" t="n">
-        <v>2450.99662580877</v>
+        <v>-2664.16633826884</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>18438</v>
+        <v>11596</v>
       </c>
       <c r="C285" t="n">
-        <v>1880.446978467556</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D285" t="n">
-        <v>-459.8601227645177</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>10323</v>
+        <v>11596</v>
       </c>
       <c r="C286" t="n">
-        <v>-949.8096632518962</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D286" t="n">
-        <v>-3290.11676448397</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>12186</v>
+        <v>11596</v>
       </c>
       <c r="C287" t="n">
-        <v>4410.873805411372</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D287" t="n">
-        <v>2070.566704179299</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>12773</v>
+        <v>12560</v>
       </c>
       <c r="C288" t="n">
-        <v>9179.035388268869</v>
+        <v>1009.923937087675</v>
       </c>
       <c r="D288" t="n">
-        <v>6838.728287036795</v>
+        <v>-1330.383164144399</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>10195</v>
+        <v>11596</v>
       </c>
       <c r="C289" t="n">
-        <v>7367.646326792733</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D289" t="n">
-        <v>5027.33922556066</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>16648</v>
+        <v>11142</v>
       </c>
       <c r="C290" t="n">
-        <v>5533.824223707366</v>
+        <v>4835.513565240741</v>
       </c>
       <c r="D290" t="n">
-        <v>3193.517122475293</v>
+        <v>2495.206464008667</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>12974</v>
+        <v>14190</v>
       </c>
       <c r="C291" t="n">
-        <v>5421.85260616707</v>
+        <v>-84.88098322921519</v>
       </c>
       <c r="D291" t="n">
-        <v>3081.545504934997</v>
+        <v>-2425.188084461289</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>10143</v>
+        <v>11741</v>
       </c>
       <c r="C292" t="n">
-        <v>5301.197675056177</v>
+        <v>5758.43246413782</v>
       </c>
       <c r="D292" t="n">
-        <v>2960.890573824104</v>
+        <v>3418.125362905746</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>10882</v>
+        <v>10192</v>
       </c>
       <c r="C293" t="n">
-        <v>112.6355661571998</v>
+        <v>4277.873765615357</v>
       </c>
       <c r="D293" t="n">
-        <v>-2227.671535074874</v>
+        <v>1937.566664383284</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>11293</v>
+        <v>12037</v>
       </c>
       <c r="C294" t="n">
-        <v>-875.6812854382977</v>
+        <v>789.5599589468652</v>
       </c>
       <c r="D294" t="n">
-        <v>-3215.988386670371</v>
+        <v>-1550.747142285208</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>13502</v>
+        <v>14284</v>
       </c>
       <c r="C295" t="n">
-        <v>4248.340534589891</v>
+        <v>1250.112275138068</v>
       </c>
       <c r="D295" t="n">
-        <v>1908.033433357818</v>
+        <v>-1090.194826094006</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>12264</v>
+        <v>12069</v>
       </c>
       <c r="C296" t="n">
-        <v>3577.459802671277</v>
+        <v>3956.389365588959</v>
       </c>
       <c r="D296" t="n">
-        <v>1237.152701439203</v>
+        <v>1616.082264356885</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>13610</v>
+        <v>12261</v>
       </c>
       <c r="C297" t="n">
-        <v>361.7945484081453</v>
+        <v>1505.360330967259</v>
       </c>
       <c r="D297" t="n">
-        <v>-1978.512552823928</v>
+        <v>-834.9467702648142</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>10148</v>
+        <v>18136</v>
       </c>
       <c r="C298" t="n">
-        <v>8343.12512067086</v>
+        <v>4954.869938734231</v>
       </c>
       <c r="D298" t="n">
-        <v>6002.818019438787</v>
+        <v>2614.562837502158</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>12152</v>
+        <v>15007</v>
       </c>
       <c r="C299" t="n">
-        <v>4253.381728501036</v>
+        <v>4542.007572706861</v>
       </c>
       <c r="D299" t="n">
-        <v>1913.074627268963</v>
+        <v>2201.700471474787</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>10208</v>
+        <v>12348</v>
       </c>
       <c r="C300" t="n">
-        <v>4956.257595467492</v>
+        <v>4791.303727040843</v>
       </c>
       <c r="D300" t="n">
-        <v>2615.950494235419</v>
+        <v>2450.99662580877</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>13382</v>
+        <v>18438</v>
       </c>
       <c r="C301" t="n">
-        <v>1762.165522734555</v>
+        <v>1880.446978467556</v>
       </c>
       <c r="D301" t="n">
-        <v>-578.1415784975188</v>
+        <v>-459.8601227645177</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>11453</v>
+        <v>10323</v>
       </c>
       <c r="C302" t="n">
-        <v>-290.7733925617944</v>
+        <v>-949.8096632518962</v>
       </c>
       <c r="D302" t="n">
-        <v>-2631.080493793868</v>
+        <v>-3290.11676448397</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>13355</v>
+        <v>12186</v>
       </c>
       <c r="C303" t="n">
-        <v>36.38808766343341</v>
+        <v>4410.873805411372</v>
       </c>
       <c r="D303" t="n">
-        <v>-2303.91901356864</v>
+        <v>2070.566704179299</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>12060</v>
+        <v>12773</v>
       </c>
       <c r="C304" t="n">
-        <v>981.0956128290438</v>
+        <v>9179.035388268869</v>
       </c>
       <c r="D304" t="n">
-        <v>-1359.21148840303</v>
+        <v>6838.728287036795</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>14766</v>
+        <v>10195</v>
       </c>
       <c r="C305" t="n">
-        <v>5956.985213571366</v>
+        <v>7367.646326792733</v>
       </c>
       <c r="D305" t="n">
-        <v>3616.678112339293</v>
+        <v>5027.33922556066</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>10654</v>
+        <v>16648</v>
       </c>
       <c r="C306" t="n">
-        <v>-4006.701701734277</v>
+        <v>5533.824223707366</v>
       </c>
       <c r="D306" t="n">
-        <v>-6347.008802966351</v>
+        <v>3193.517122475293</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>11037</v>
+        <v>12974</v>
       </c>
       <c r="C307" t="n">
-        <v>8341.104260661235</v>
+        <v>5421.85260616707</v>
       </c>
       <c r="D307" t="n">
-        <v>6000.797159429162</v>
+        <v>3081.545504934997</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>18306</v>
+        <v>10143</v>
       </c>
       <c r="C308" t="n">
-        <v>3084.167241888463</v>
+        <v>5301.197675056177</v>
       </c>
       <c r="D308" t="n">
-        <v>743.8601406563894</v>
+        <v>2960.890573824104</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>10822</v>
+        <v>10882</v>
       </c>
       <c r="C309" t="n">
-        <v>-2280.615496182574</v>
+        <v>112.6355661571998</v>
       </c>
       <c r="D309" t="n">
-        <v>-4620.922597414647</v>
+        <v>-2227.671535074874</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>10220</v>
+        <v>11293</v>
       </c>
       <c r="C310" t="n">
-        <v>8197.625900676416</v>
+        <v>-875.6812854382977</v>
       </c>
       <c r="D310" t="n">
-        <v>5857.318799444342</v>
+        <v>-3215.988386670371</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>10612</v>
+        <v>13502</v>
       </c>
       <c r="C311" t="n">
-        <v>10612.23142912128</v>
+        <v>4248.340534589891</v>
       </c>
       <c r="D311" t="n">
-        <v>8271.92432788921</v>
+        <v>1908.033433357818</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>14713</v>
+        <v>12264</v>
       </c>
       <c r="C312" t="n">
-        <v>3597.356102119099</v>
+        <v>3577.459802671277</v>
       </c>
       <c r="D312" t="n">
-        <v>1257.049000887026</v>
+        <v>1237.152701439203</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>10888</v>
+        <v>13610</v>
       </c>
       <c r="C313" t="n">
-        <v>5867.202392324418</v>
+        <v>361.7945484081453</v>
       </c>
       <c r="D313" t="n">
-        <v>3526.895291092344</v>
+        <v>-1978.512552823928</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>12461</v>
+        <v>10148</v>
       </c>
       <c r="C314" t="n">
-        <v>-2098.07417707096</v>
+        <v>8343.12512067086</v>
       </c>
       <c r="D314" t="n">
-        <v>-4438.381278303033</v>
+        <v>6002.818019438787</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>13367</v>
+        <v>12152</v>
       </c>
       <c r="C315" t="n">
-        <v>6561.946415045256</v>
+        <v>4253.381728501036</v>
       </c>
       <c r="D315" t="n">
-        <v>4221.639313813183</v>
+        <v>1913.074627268963</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>11456</v>
+        <v>10208</v>
       </c>
       <c r="C316" t="n">
-        <v>-2125.849127637226</v>
+        <v>4956.257595467492</v>
       </c>
       <c r="D316" t="n">
-        <v>-4466.156228869299</v>
+        <v>2615.950494235419</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>10496</v>
+        <v>13382</v>
       </c>
       <c r="C317" t="n">
-        <v>-3091.605167205335</v>
+        <v>1762.165522734555</v>
       </c>
       <c r="D317" t="n">
-        <v>-5431.912268437409</v>
+        <v>-578.1415784975188</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>10386</v>
+        <v>11453</v>
       </c>
       <c r="C318" t="n">
-        <v>-1318.847324327334</v>
+        <v>-290.7733925617944</v>
       </c>
       <c r="D318" t="n">
-        <v>-3659.154425559407</v>
+        <v>-2631.080493793868</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>10385</v>
+        <v>13355</v>
       </c>
       <c r="C319" t="n">
-        <v>3877.754700314994</v>
+        <v>36.38808766343341</v>
       </c>
       <c r="D319" t="n">
-        <v>1537.447599082921</v>
+        <v>-2303.91901356864</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>10385</v>
+        <v>12060</v>
       </c>
       <c r="C320" t="n">
-        <v>3877.754700314994</v>
+        <v>981.0956128290438</v>
       </c>
       <c r="D320" t="n">
-        <v>1537.447599082921</v>
+        <v>-1359.21148840303</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>10385</v>
+        <v>14766</v>
       </c>
       <c r="C321" t="n">
-        <v>3877.754700314994</v>
+        <v>5956.985213571366</v>
       </c>
       <c r="D321" t="n">
-        <v>1537.447599082921</v>
+        <v>3616.678112339293</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>10385</v>
+        <v>10654</v>
       </c>
       <c r="C322" t="n">
-        <v>3877.754700314994</v>
+        <v>-4006.701701734277</v>
       </c>
       <c r="D322" t="n">
-        <v>1537.447599082921</v>
+        <v>-6347.008802966351</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>10385</v>
+        <v>11037</v>
       </c>
       <c r="C323" t="n">
-        <v>3877.754700314994</v>
+        <v>8341.104260661235</v>
       </c>
       <c r="D323" t="n">
-        <v>1537.447599082921</v>
+        <v>6000.797159429162</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>10385</v>
+        <v>18306</v>
       </c>
       <c r="C324" t="n">
-        <v>3877.754700314994</v>
+        <v>3084.167241888463</v>
       </c>
       <c r="D324" t="n">
-        <v>1537.447599082921</v>
+        <v>743.8601406563894</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>10972</v>
+        <v>10822</v>
       </c>
       <c r="C325" t="n">
-        <v>5078.425941471709</v>
+        <v>-2280.615496182574</v>
       </c>
       <c r="D325" t="n">
-        <v>2738.118840239636</v>
+        <v>-4620.922597414647</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>10972</v>
+        <v>10220</v>
       </c>
       <c r="C326" t="n">
-        <v>5078.425941471709</v>
+        <v>8197.625900676416</v>
       </c>
       <c r="D326" t="n">
-        <v>2738.118840239636</v>
+        <v>5857.318799444342</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>10972</v>
+        <v>10612</v>
       </c>
       <c r="C327" t="n">
-        <v>5078.425941471709</v>
+        <v>10612.23142912128</v>
       </c>
       <c r="D327" t="n">
-        <v>2738.118840239636</v>
+        <v>8271.92432788921</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>10972</v>
+        <v>14713</v>
       </c>
       <c r="C328" t="n">
-        <v>5078.425941471709</v>
+        <v>3597.356102119099</v>
       </c>
       <c r="D328" t="n">
-        <v>2738.118840239636</v>
+        <v>1257.049000887026</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>10972</v>
+        <v>10483</v>
       </c>
       <c r="C329" t="n">
-        <v>5078.425941471709</v>
+        <v>0</v>
       </c>
       <c r="D329" t="n">
-        <v>2738.118840239636</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>10972</v>
+        <v>10888</v>
       </c>
       <c r="C330" t="n">
-        <v>5078.425941471709</v>
+        <v>5867.202392324418</v>
       </c>
       <c r="D330" t="n">
-        <v>2738.118840239636</v>
+        <v>3526.895291092344</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>11596</v>
+        <v>12461</v>
       </c>
       <c r="C331" t="n">
-        <v>4066.342337608624</v>
+        <v>-2098.07417707096</v>
       </c>
       <c r="D331" t="n">
-        <v>1726.035236376551</v>
+        <v>-4438.381278303033</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>11596</v>
+        <v>13367</v>
       </c>
       <c r="C332" t="n">
-        <v>4066.342337608624</v>
+        <v>6561.946415045256</v>
       </c>
       <c r="D332" t="n">
-        <v>1726.035236376551</v>
+        <v>4221.639313813183</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>11596</v>
+        <v>11456</v>
       </c>
       <c r="C333" t="n">
-        <v>4066.342337608624</v>
+        <v>-2125.849127637226</v>
       </c>
       <c r="D333" t="n">
-        <v>1726.035236376551</v>
+        <v>-4466.156228869299</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>11596</v>
+        <v>10496</v>
       </c>
       <c r="C334" t="n">
-        <v>4066.342337608624</v>
+        <v>-3091.605167205335</v>
       </c>
       <c r="D334" t="n">
-        <v>1726.035236376551</v>
+        <v>-5431.912268437409</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>10523</v>
+        <v>10386</v>
       </c>
       <c r="C335" t="n">
-        <v>7400.338153895947</v>
+        <v>-1318.847324327334</v>
       </c>
       <c r="D335" t="n">
-        <v>5060.031052663873</v>
+        <v>-3659.154425559407</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>10886</v>
+        <v>10385</v>
       </c>
       <c r="C336" t="n">
-        <v>5368.78031190201</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D336" t="n">
-        <v>3028.473210669937</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>11260</v>
+        <v>10385</v>
       </c>
       <c r="C337" t="n">
-        <v>-213.2928030543505</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D337" t="n">
-        <v>-2553.599904286424</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>13466</v>
+        <v>10385</v>
       </c>
       <c r="C338" t="n">
-        <v>3944.957498329421</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D338" t="n">
-        <v>1604.650397097348</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>11544</v>
+        <v>10385</v>
       </c>
       <c r="C339" t="n">
-        <v>1770.115956761033</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D339" t="n">
-        <v>-570.1911444710399</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>13836</v>
+        <v>10385</v>
       </c>
       <c r="C340" t="n">
-        <v>63.66324699541178</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D340" t="n">
-        <v>-2276.643854236661</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>12350</v>
+        <v>10385</v>
       </c>
       <c r="C341" t="n">
-        <v>5018.095423444091</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D341" t="n">
-        <v>2677.788322212018</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>13722</v>
+        <v>10972</v>
       </c>
       <c r="C342" t="n">
-        <v>5231.401547825666</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D342" t="n">
-        <v>2891.094446593593</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>11107</v>
+        <v>10972</v>
       </c>
       <c r="C343" t="n">
-        <v>1331.863088458812</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D343" t="n">
-        <v>-1008.444012773262</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>13949</v>
+        <v>10972</v>
       </c>
       <c r="C344" t="n">
-        <v>3131.324935727402</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D344" t="n">
-        <v>791.0178344953283</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>12583</v>
+        <v>10972</v>
       </c>
       <c r="C345" t="n">
-        <v>5314.447805971408</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D345" t="n">
-        <v>2974.140704739335</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>14334</v>
+        <v>10972</v>
       </c>
       <c r="C346" t="n">
-        <v>7756.292660282568</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D346" t="n">
-        <v>5415.985559050495</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>10513</v>
+        <v>10972</v>
       </c>
       <c r="C347" t="n">
-        <v>915.6859669578726</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D347" t="n">
-        <v>-1424.621134274201</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>11569</v>
+        <v>11596</v>
       </c>
       <c r="C348" t="n">
-        <v>8054.283610038196</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D348" t="n">
-        <v>5713.976508806122</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>19043</v>
+        <v>11596</v>
       </c>
       <c r="C349" t="n">
-        <v>5612.437160643574</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D349" t="n">
-        <v>3272.130059411501</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>10895</v>
+        <v>11596</v>
       </c>
       <c r="C350" t="n">
-        <v>2530.692062842838</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D350" t="n">
-        <v>190.384961610765</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Country': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>10718</v>
+        <v>11596</v>
       </c>
       <c r="C351" t="n">
-        <v>7561.404854411881</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D351" t="n">
-        <v>5221.097753179808</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
+          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>10977</v>
+        <v>10523</v>
       </c>
       <c r="C352" t="n">
-        <v>8261.27858481184</v>
+        <v>7400.338153895947</v>
       </c>
       <c r="D352" t="n">
-        <v>5920.971483579767</v>
+        <v>5060.031052663873</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>14503</v>
+        <v>10886</v>
       </c>
       <c r="C353" t="n">
-        <v>5177.646341653054</v>
+        <v>5368.78031190201</v>
       </c>
       <c r="D353" t="n">
-        <v>2837.339240420981</v>
+        <v>3028.473210669937</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>11476</v>
+        <v>11260</v>
       </c>
       <c r="C354" t="n">
-        <v>7238.752924832083</v>
+        <v>-213.2928030543505</v>
       </c>
       <c r="D354" t="n">
-        <v>4898.44582360001</v>
+        <v>-2553.599904286424</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>12535</v>
+        <v>13466</v>
       </c>
       <c r="C355" t="n">
-        <v>2307.223348076758</v>
+        <v>3944.957498329421</v>
       </c>
       <c r="D355" t="n">
-        <v>-33.08375315531521</v>
+        <v>1604.650397097348</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>13214</v>
+        <v>11544</v>
       </c>
       <c r="C356" t="n">
-        <v>8541.069788558449</v>
+        <v>1770.115956761033</v>
       </c>
       <c r="D356" t="n">
-        <v>6200.762687326375</v>
+        <v>-570.1911444710399</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>10200</v>
+        <v>13836</v>
       </c>
       <c r="C357" t="n">
-        <v>7822.156795761233</v>
+        <v>63.66324699541178</v>
       </c>
       <c r="D357" t="n">
-        <v>5481.84969452916</v>
+        <v>-2276.643854236661</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>11483</v>
+        <v>12350</v>
       </c>
       <c r="C358" t="n">
-        <v>3259.941165893908</v>
+        <v>5018.095423444091</v>
       </c>
       <c r="D358" t="n">
-        <v>919.6340646618351</v>
+        <v>2677.788322212018</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>10346</v>
+        <v>13722</v>
       </c>
       <c r="C359" t="n">
-        <v>2683.209305494984</v>
+        <v>5231.401547825666</v>
       </c>
       <c r="D359" t="n">
-        <v>342.9022042629103</v>
+        <v>2891.094446593593</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>10385</v>
+        <v>11107</v>
       </c>
       <c r="C360" t="n">
-        <v>3877.754700314994</v>
+        <v>1331.863088458812</v>
       </c>
       <c r="D360" t="n">
-        <v>1537.447599082921</v>
+        <v>-1008.444012773262</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>10385</v>
+        <v>13949</v>
       </c>
       <c r="C361" t="n">
-        <v>3877.754700314994</v>
+        <v>3131.324935727402</v>
       </c>
       <c r="D361" t="n">
-        <v>1537.447599082921</v>
+        <v>791.0178344953283</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>10385</v>
+        <v>12583</v>
       </c>
       <c r="C362" t="n">
-        <v>3877.754700314994</v>
+        <v>5314.447805971408</v>
       </c>
       <c r="D362" t="n">
-        <v>1537.447599082921</v>
+        <v>2974.140704739335</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>10563</v>
+        <v>14334</v>
       </c>
       <c r="C363" t="n">
-        <v>2798.587858446254</v>
+        <v>7756.292660282568</v>
       </c>
       <c r="D363" t="n">
-        <v>458.280757214181</v>
+        <v>5415.985559050495</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1)}</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>10385</v>
+        <v>10513</v>
       </c>
       <c r="C364" t="n">
-        <v>3877.754700314994</v>
+        <v>915.6859669578726</v>
       </c>
       <c r="D364" t="n">
-        <v>1537.447599082921</v>
+        <v>-1424.621134274201</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>10233</v>
+        <v>11569</v>
       </c>
       <c r="C365" t="n">
-        <v>8396.393027241296</v>
+        <v>8054.283610038196</v>
       </c>
       <c r="D365" t="n">
-        <v>6056.085926009223</v>
+        <v>5713.976508806122</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>10385</v>
+        <v>19043</v>
       </c>
       <c r="C366" t="n">
-        <v>2089.577579292025</v>
+        <v>5612.437160643574</v>
       </c>
       <c r="D366" t="n">
-        <v>-250.7295219400485</v>
+        <v>3272.130059411501</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>10527</v>
+        <v>10895</v>
       </c>
       <c r="C367" t="n">
-        <v>1178.006270709004</v>
+        <v>2530.692062842838</v>
       </c>
       <c r="D367" t="n">
-        <v>-1162.300830523069</v>
+        <v>190.384961610765</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>11243</v>
+        <v>10718</v>
       </c>
       <c r="C368" t="n">
-        <v>5314.412432527692</v>
+        <v>7561.404854411881</v>
       </c>
       <c r="D368" t="n">
-        <v>2974.105331295618</v>
+        <v>5221.097753179808</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>13686</v>
+        <v>10977</v>
       </c>
       <c r="C369" t="n">
-        <v>3515.768140827252</v>
+        <v>8261.27858481184</v>
       </c>
       <c r="D369" t="n">
-        <v>1175.461039595179</v>
+        <v>5920.971483579767</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>11298</v>
+        <v>14503</v>
       </c>
       <c r="C370" t="n">
-        <v>3342.445868998675</v>
+        <v>5177.646341653054</v>
       </c>
       <c r="D370" t="n">
-        <v>1002.138767766602</v>
+        <v>2837.339240420981</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>10150</v>
+        <v>11312</v>
       </c>
       <c r="C371" t="n">
-        <v>6087.285990703384</v>
+        <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>3746.978889471311</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>10618</v>
+        <v>11476</v>
       </c>
       <c r="C372" t="n">
-        <v>3060.467391451986</v>
+        <v>7238.752924832083</v>
       </c>
       <c r="D372" t="n">
-        <v>720.1602902199129</v>
+        <v>4898.44582360001</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>13462</v>
+        <v>12535</v>
       </c>
       <c r="C373" t="n">
-        <v>2813.645626993343</v>
+        <v>2307.223348076758</v>
       </c>
       <c r="D373" t="n">
-        <v>473.3385257612695</v>
+        <v>-33.08375315531521</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>10492</v>
+        <v>10175</v>
       </c>
       <c r="C374" t="n">
-        <v>1429.346148391121</v>
+        <v>0</v>
       </c>
       <c r="D374" t="n">
-        <v>-910.9609528409524</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>14691</v>
+        <v>13214</v>
       </c>
       <c r="C375" t="n">
-        <v>5897.631840164323</v>
+        <v>8541.069788558449</v>
       </c>
       <c r="D375" t="n">
-        <v>3557.32473893225</v>
+        <v>6200.762687326375</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>10556</v>
+        <v>10200</v>
       </c>
       <c r="C376" t="n">
-        <v>-322.7898298439829</v>
+        <v>7822.156795761233</v>
       </c>
       <c r="D376" t="n">
-        <v>-2663.096931076057</v>
+        <v>5481.84969452916</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>10556</v>
+        <v>11483</v>
       </c>
       <c r="C377" t="n">
-        <v>-322.7898298439829</v>
+        <v>3259.941165893908</v>
       </c>
       <c r="D377" t="n">
-        <v>-2663.096931076057</v>
+        <v>919.6340646618351</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>10794</v>
+        <v>10346</v>
       </c>
       <c r="C378" t="n">
-        <v>8675.471927870807</v>
+        <v>2683.209305494984</v>
       </c>
       <c r="D378" t="n">
-        <v>6335.164826638734</v>
+        <v>342.9022042629103</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>12923</v>
+        <v>10385</v>
       </c>
       <c r="C379" t="n">
-        <v>219.8874215572126</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D379" t="n">
-        <v>-2120.419679674861</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>10191</v>
+        <v>10385</v>
       </c>
       <c r="C380" t="n">
-        <v>417.0799168498838</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D380" t="n">
-        <v>-1923.22718438219</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>10191</v>
+        <v>10385</v>
       </c>
       <c r="C381" t="n">
-        <v>417.0799168498838</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D381" t="n">
-        <v>-1923.22718438219</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>10622</v>
+        <v>10563</v>
       </c>
       <c r="C382" t="n">
-        <v>4712.860328015451</v>
+        <v>2798.587858446254</v>
       </c>
       <c r="D382" t="n">
-        <v>2372.553226783378</v>
+        <v>458.280757214181</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>11850</v>
+        <v>10385</v>
       </c>
       <c r="C383" t="n">
-        <v>430.9560173006475</v>
+        <v>3877.754700314994</v>
       </c>
       <c r="D383" t="n">
-        <v>-1909.351083931426</v>
+        <v>1537.447599082921</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'FormalEducation': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>10972</v>
+        <v>10233</v>
       </c>
       <c r="C384" t="n">
-        <v>5078.425941471709</v>
+        <v>8396.393027241296</v>
       </c>
       <c r="D384" t="n">
-        <v>2738.118840239636</v>
+        <v>6056.085926009223</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>10972</v>
+        <v>10385</v>
       </c>
       <c r="C385" t="n">
-        <v>5078.425941471709</v>
+        <v>2089.577579292025</v>
       </c>
       <c r="D385" t="n">
-        <v>2738.118840239636</v>
+        <v>-250.7295219400485</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>10972</v>
+        <v>10527</v>
       </c>
       <c r="C386" t="n">
-        <v>5078.425941471709</v>
+        <v>1178.006270709004</v>
       </c>
       <c r="D386" t="n">
-        <v>2738.118840239636</v>
+        <v>-1162.300830523069</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>11846</v>
+        <v>11243</v>
       </c>
       <c r="C387" t="n">
-        <v>646.1931342251935</v>
+        <v>5314.412432527692</v>
       </c>
       <c r="D387" t="n">
-        <v>-1694.11396700688</v>
+        <v>2974.105331295618</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>10972</v>
+        <v>13686</v>
       </c>
       <c r="C388" t="n">
-        <v>5078.425941471709</v>
+        <v>3515.768140827252</v>
       </c>
       <c r="D388" t="n">
-        <v>2738.118840239636</v>
+        <v>1175.461039595179</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>11152</v>
+        <v>11298</v>
       </c>
       <c r="C389" t="n">
-        <v>-1201.333926382576</v>
+        <v>3342.445868998675</v>
       </c>
       <c r="D389" t="n">
-        <v>-3541.64102761465</v>
+        <v>1002.138767766602</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>10822</v>
+        <v>10150</v>
       </c>
       <c r="C390" t="n">
-        <v>682.8365642140159</v>
+        <v>6087.285990703384</v>
       </c>
       <c r="D390" t="n">
-        <v>-1657.470537018057</v>
+        <v>3746.978889471311</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>{'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>11596</v>
+        <v>10618</v>
       </c>
       <c r="C391" t="n">
-        <v>4066.342337608624</v>
+        <v>3060.467391451986</v>
       </c>
       <c r="D391" t="n">
-        <v>1726.035236376551</v>
+        <v>720.1602902199129</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>11129</v>
+        <v>13462</v>
       </c>
       <c r="C392" t="n">
-        <v>4756.837771199546</v>
+        <v>2813.645626993343</v>
       </c>
       <c r="D392" t="n">
-        <v>2416.530669967473</v>
+        <v>473.3385257612695</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>11397</v>
+        <v>10492</v>
       </c>
       <c r="C393" t="n">
-        <v>-956.0352935161759</v>
+        <v>1429.346148391121</v>
       </c>
       <c r="D393" t="n">
-        <v>-3296.342394748249</v>
+        <v>-910.9609528409524</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>10257</v>
+        <v>14691</v>
       </c>
       <c r="C394" t="n">
-        <v>5940.81315994739</v>
+        <v>5897.631840164323</v>
       </c>
       <c r="D394" t="n">
-        <v>3600.506058715317</v>
+        <v>3557.32473893225</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>11417</v>
+        <v>10556</v>
       </c>
       <c r="C395" t="n">
-        <v>4361.729211416872</v>
+        <v>-322.7898298439829</v>
       </c>
       <c r="D395" t="n">
-        <v>2021.422110184799</v>
+        <v>-2663.096931076057</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>11605</v>
+        <v>10556</v>
       </c>
       <c r="C396" t="n">
-        <v>1541.258406724297</v>
+        <v>-322.7898298439829</v>
       </c>
       <c r="D396" t="n">
-        <v>-799.048694507776</v>
+        <v>-2663.096931076057</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>10543</v>
+        <v>10288</v>
       </c>
       <c r="C397" t="n">
-        <v>4359.459348914915</v>
+        <v>0</v>
       </c>
       <c r="D397" t="n">
-        <v>2019.152247682841</v>
+        <v>-2340.307101232073</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Age': np.int64(3), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>11922</v>
+        <v>10794</v>
       </c>
       <c r="C398" t="n">
-        <v>8672.973823924509</v>
+        <v>8675.471927870807</v>
       </c>
       <c r="D398" t="n">
-        <v>6332.666722692436</v>
+        <v>6335.164826638734</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>15779</v>
+        <v>12923</v>
       </c>
       <c r="C399" t="n">
-        <v>4866.3772195256</v>
+        <v>219.8874215572126</v>
       </c>
       <c r="D399" t="n">
-        <v>2526.070118293526</v>
+        <v>-2120.419679674861</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>12090</v>
+        <v>10191</v>
       </c>
       <c r="C400" t="n">
-        <v>5252.271891312121</v>
+        <v>417.0799168498838</v>
       </c>
       <c r="D400" t="n">
-        <v>2911.964790080047</v>
+        <v>-1923.22718438219</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>10323</v>
+        <v>10191</v>
       </c>
       <c r="C401" t="n">
-        <v>-949.8096632518962</v>
+        <v>417.0799168498838</v>
       </c>
       <c r="D401" t="n">
-        <v>-3290.11676448397</v>
+        <v>-1923.22718438219</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>11074</v>
+        <v>10622</v>
       </c>
       <c r="C402" t="n">
-        <v>9790.329747837262</v>
+        <v>4712.860328015451</v>
       </c>
       <c r="D402" t="n">
-        <v>7450.022646605189</v>
+        <v>2372.553226783378</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>11475</v>
+        <v>11850</v>
       </c>
       <c r="C403" t="n">
-        <v>3926.180330501684</v>
+        <v>430.9560173006475</v>
       </c>
       <c r="D403" t="n">
-        <v>1585.87322926961</v>
+        <v>-1909.351083931426</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>11378</v>
+        <v>10972</v>
       </c>
       <c r="C404" t="n">
-        <v>1597.257712860404</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D404" t="n">
-        <v>-743.0493883716697</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>12432</v>
+        <v>10972</v>
       </c>
       <c r="C405" t="n">
-        <v>6595.109072888894</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D405" t="n">
-        <v>4254.801971656821</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>10822</v>
+        <v>10972</v>
       </c>
       <c r="C406" t="n">
-        <v>-2280.615496182574</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D406" t="n">
-        <v>-4620.922597414647</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>10385</v>
+        <v>11846</v>
       </c>
       <c r="C407" t="n">
-        <v>3877.754700314994</v>
+        <v>646.1931342251935</v>
       </c>
       <c r="D407" t="n">
-        <v>1537.447599082921</v>
+        <v>-1694.11396700688</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>10385</v>
+        <v>10972</v>
       </c>
       <c r="C408" t="n">
-        <v>3877.754700314994</v>
+        <v>5078.425941471709</v>
       </c>
       <c r="D408" t="n">
-        <v>1537.447599082921</v>
+        <v>2738.118840239636</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>10385</v>
+        <v>11152</v>
       </c>
       <c r="C409" t="n">
-        <v>3877.754700314994</v>
+        <v>-1201.333926382576</v>
       </c>
       <c r="D409" t="n">
-        <v>1537.447599082921</v>
+        <v>-3541.64102761465</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>10385</v>
+        <v>10822</v>
       </c>
       <c r="C410" t="n">
-        <v>3877.754700314994</v>
+        <v>682.8365642140159</v>
       </c>
       <c r="D410" t="n">
-        <v>1537.447599082921</v>
+        <v>-1657.470537018057</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+          <t>{'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>10972</v>
+        <v>11596</v>
       </c>
       <c r="C411" t="n">
-        <v>5078.425941471709</v>
+        <v>4066.342337608624</v>
       </c>
       <c r="D411" t="n">
-        <v>2738.118840239636</v>
+        <v>1726.035236376551</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>10972</v>
+        <v>11129</v>
       </c>
       <c r="C412" t="n">
-        <v>5078.425941471709</v>
+        <v>4756.837771199546</v>
       </c>
       <c r="D412" t="n">
-        <v>2738.118840239636</v>
+        <v>2416.530669967473</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>10972</v>
+        <v>11397</v>
       </c>
       <c r="C413" t="n">
-        <v>5078.425941471709</v>
+        <v>-956.0352935161759</v>
       </c>
       <c r="D413" t="n">
-        <v>2738.118840239636</v>
+        <v>-3296.342394748249</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>10972</v>
+        <v>10257</v>
       </c>
       <c r="C414" t="n">
-        <v>5078.425941471709</v>
+        <v>5940.81315994739</v>
       </c>
       <c r="D414" t="n">
-        <v>2738.118840239636</v>
+        <v>3600.506058715317</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>11596</v>
+        <v>11417</v>
       </c>
       <c r="C415" t="n">
-        <v>4066.342337608624</v>
+        <v>4361.729211416872</v>
       </c>
       <c r="D415" t="n">
-        <v>1726.035236376551</v>
+        <v>2021.422110184799</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>11698</v>
+        <v>11605</v>
       </c>
       <c r="C416" t="n">
-        <v>4035.147230231285</v>
+        <v>1541.258406724297</v>
       </c>
       <c r="D416" t="n">
-        <v>1694.840128999212</v>
+        <v>-799.048694507776</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'DevType': np.int64(2), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>11898</v>
+        <v>10543</v>
       </c>
       <c r="C417" t="n">
-        <v>5650.889317824346</v>
+        <v>4359.459348914915</v>
       </c>
       <c r="D417" t="n">
-        <v>3310.582216592273</v>
+        <v>2019.152247682841</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>12315</v>
+        <v>11922</v>
       </c>
       <c r="C418" t="n">
-        <v>8418.257061400684</v>
+        <v>8672.973823924509</v>
       </c>
       <c r="D418" t="n">
-        <v>6077.94996016861</v>
+        <v>6332.666722692436</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>10895</v>
+        <v>15779</v>
       </c>
       <c r="C419" t="n">
-        <v>2530.692062842838</v>
+        <v>4866.3772195256</v>
       </c>
       <c r="D419" t="n">
-        <v>190.384961610765</v>
+        <v>2526.070118293526</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>10385</v>
+        <v>12090</v>
       </c>
       <c r="C420" t="n">
-        <v>3877.754700314994</v>
+        <v>5252.271891312121</v>
       </c>
       <c r="D420" t="n">
-        <v>1537.447599082921</v>
+        <v>2911.964790080047</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>10556</v>
+        <v>10323</v>
       </c>
       <c r="C421" t="n">
-        <v>-322.7898298439829</v>
+        <v>-949.8096632518962</v>
       </c>
       <c r="D421" t="n">
-        <v>-2663.096931076057</v>
+        <v>-3290.11676448397</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>10191</v>
+        <v>11074</v>
       </c>
       <c r="C422" t="n">
-        <v>417.0799168498838</v>
+        <v>9790.329747837262</v>
       </c>
       <c r="D422" t="n">
-        <v>-1923.22718438219</v>
+        <v>7450.022646605189</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>10972</v>
+        <v>11475</v>
       </c>
       <c r="C423" t="n">
-        <v>5078.425941471709</v>
+        <v>3926.180330501684</v>
       </c>
       <c r="D423" t="n">
-        <v>2738.118840239636</v>
+        <v>1585.87322926961</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>10312</v>
+        <v>11378</v>
       </c>
       <c r="C424" t="n">
-        <v>9316.488376435018</v>
+        <v>1597.257712860404</v>
       </c>
       <c r="D424" t="n">
-        <v>6976.181275202945</v>
+        <v>-743.0493883716697</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>10385</v>
+        <v>12432</v>
       </c>
       <c r="C425" t="n">
-        <v>3877.754700314994</v>
+        <v>6595.109072888894</v>
       </c>
       <c r="D425" t="n">
-        <v>1537.447599082921</v>
+        <v>4254.801971656821</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>10822</v>
+      </c>
+      <c r="C426" t="n">
+        <v>-2280.615496182574</v>
+      </c>
+      <c r="D426" t="n">
+        <v>-4620.922597414647</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>10385</v>
+      </c>
+      <c r="C427" t="n">
+        <v>3877.754700314994</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1537.447599082921</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>10385</v>
+      </c>
+      <c r="C428" t="n">
+        <v>3877.754700314994</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1537.447599082921</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>10385</v>
+      </c>
+      <c r="C429" t="n">
+        <v>3877.754700314994</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1537.447599082921</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>10385</v>
+      </c>
+      <c r="C430" t="n">
+        <v>3877.754700314994</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1537.447599082921</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C431" t="n">
+        <v>5078.425941471709</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2738.118840239636</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C432" t="n">
+        <v>5078.425941471709</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2738.118840239636</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C433" t="n">
+        <v>5078.425941471709</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2738.118840239636</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C434" t="n">
+        <v>5078.425941471709</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2738.118840239636</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>11596</v>
+      </c>
+      <c r="C435" t="n">
+        <v>4066.342337608624</v>
+      </c>
+      <c r="D435" t="n">
+        <v>1726.035236376551</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>11698</v>
+      </c>
+      <c r="C436" t="n">
+        <v>4035.147230231285</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1694.840128999212</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>11898</v>
+      </c>
+      <c r="C437" t="n">
+        <v>5650.889317824346</v>
+      </c>
+      <c r="D437" t="n">
+        <v>3310.582216592273</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>12315</v>
+      </c>
+      <c r="C438" t="n">
+        <v>8418.257061400684</v>
+      </c>
+      <c r="D438" t="n">
+        <v>6077.94996016861</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>10895</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2530.692062842838</v>
+      </c>
+      <c r="D439" t="n">
+        <v>190.384961610765</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>10385</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3877.754700314994</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1537.447599082921</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Continent': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>10556</v>
+      </c>
+      <c r="C441" t="n">
+        <v>-322.7898298439829</v>
+      </c>
+      <c r="D441" t="n">
+        <v>-2663.096931076057</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>{'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1), 'GDP': np.int64(1), 'GINI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>10191</v>
+      </c>
+      <c r="C442" t="n">
+        <v>417.0799168498838</v>
+      </c>
+      <c r="D442" t="n">
+        <v>-1923.22718438219</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>{'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>10972</v>
+      </c>
+      <c r="C443" t="n">
+        <v>5078.425941471709</v>
+      </c>
+      <c r="D443" t="n">
+        <v>2738.118840239636</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'RaceEthnicity': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>10312</v>
+      </c>
+      <c r="C444" t="n">
+        <v>9316.488376435018</v>
+      </c>
+      <c r="D444" t="n">
+        <v>6976.181275202945</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>{'Country': np.int64(2), 'Student': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>10385</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3877.754700314994</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1537.447599082921</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
           <t>{'Country': np.int64(2), 'SexualOrientation': np.int64(1), 'Continent': np.int64(2), 'HDI': np.int64(1), 'GDP': np.int64(2), 'GINI': np.int64(2)}</t>
         </is>
       </c>
-      <c r="B426" t="n">
+      <c r="B446" t="n">
         <v>10972</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C446" t="n">
         <v>5078.425941471709</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D446" t="n">
         <v>2738.118840239636</v>
       </c>
     </row>
